--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C2603B-7985-4D2C-A3A0-C038FB272494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF435D5B-2109-407B-9548-A174EBAF3DB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
-  <si>
-    <t>1st orderSDIRK4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>1st orderdop853</t>
   </si>
@@ -49,9 +46,6 @@
     <t>SDIRK3</t>
   </si>
   <si>
-    <t>1st orderSDIRK3</t>
-  </si>
-  <si>
     <t>WENO3, SDIRK3</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>SDIRK2</t>
   </si>
   <si>
-    <t>1st orderSDIRK2</t>
-  </si>
-  <si>
     <t>WENO3, SDIRK2</t>
   </si>
   <si>
@@ -71,6 +62,168 @@
   </si>
   <si>
     <t>IE</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>WENO3, IM</t>
+  </si>
+  <si>
+    <t>WENO5, IM</t>
+  </si>
+  <si>
+    <t>1st order CN</t>
+  </si>
+  <si>
+    <t>WENO3, CN</t>
+  </si>
+  <si>
+    <t>WENO5, CN</t>
+  </si>
+  <si>
+    <t>L2C</t>
+  </si>
+  <si>
+    <t>1st order L2C</t>
+  </si>
+  <si>
+    <t>WENO3, L2C</t>
+  </si>
+  <si>
+    <t>WENO5, L2C</t>
+  </si>
+  <si>
+    <t>1st order IE</t>
+  </si>
+  <si>
+    <t>WENO3, IE</t>
+  </si>
+  <si>
+    <t>WENO5, IE</t>
+  </si>
+  <si>
+    <t>1st order IM</t>
+  </si>
+  <si>
+    <t>L3B</t>
+  </si>
+  <si>
+    <t>1st order L3B</t>
+  </si>
+  <si>
+    <t>WENO3, L3B</t>
+  </si>
+  <si>
+    <t>WENO5, L3B</t>
+  </si>
+  <si>
+    <t>1st order L3AS4</t>
+  </si>
+  <si>
+    <t>WENO3, L3AS4</t>
+  </si>
+  <si>
+    <t>WENO5, L3AS4</t>
+  </si>
+  <si>
+    <t>L3AS4</t>
+  </si>
+  <si>
+    <t>L3A</t>
+  </si>
+  <si>
+    <t>1st order L3A</t>
+  </si>
+  <si>
+    <t>WENO3, L3A</t>
+  </si>
+  <si>
+    <t>WENO5, L3A</t>
+  </si>
+  <si>
+    <t>G2P4</t>
+  </si>
+  <si>
+    <t>1st order G2P4</t>
+  </si>
+  <si>
+    <t>WENO3, G2P4</t>
+  </si>
+  <si>
+    <t>WENO5, G2P4</t>
+  </si>
+  <si>
+    <t>G3P6</t>
+  </si>
+  <si>
+    <t>1st order G3P6</t>
+  </si>
+  <si>
+    <t>WENO3, G3P6</t>
+  </si>
+  <si>
+    <t>WENO5, G3P6</t>
+  </si>
+  <si>
+    <t>SDIRK1BDF</t>
+  </si>
+  <si>
+    <t>1st order SDIRK1BDF</t>
+  </si>
+  <si>
+    <t>WENO3, SDIRK1BDF</t>
+  </si>
+  <si>
+    <t>WENO5, SDIRK1BDF</t>
+  </si>
+  <si>
+    <t>1st order SDIRK4</t>
+  </si>
+  <si>
+    <t>1st order SDIRK3</t>
+  </si>
+  <si>
+    <t>1st order SDIRK2</t>
+  </si>
+  <si>
+    <t>L3C</t>
+  </si>
+  <si>
+    <t>1st order L3C</t>
+  </si>
+  <si>
+    <t>WENO3, L3C</t>
+  </si>
+  <si>
+    <t>WENO5, L3C</t>
+  </si>
+  <si>
+    <t>R2A</t>
+  </si>
+  <si>
+    <t>1st order R2A</t>
+  </si>
+  <si>
+    <t>WENO3, R2A</t>
+  </si>
+  <si>
+    <t>WENO5, R2A</t>
+  </si>
+  <si>
+    <t>R2AS</t>
+  </si>
+  <si>
+    <t>1st order R2AS</t>
+  </si>
+  <si>
+    <t>WENO3, R2AS</t>
+  </si>
+  <si>
+    <t>WENO5, R2AS</t>
   </si>
 </sst>
 </file>
@@ -106,8 +259,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8:AE8"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF12" sqref="BF12:BL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,11 +558,11 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
@@ -416,154 +572,282 @@
     <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="56" width="18" customWidth="1"/>
+    <col min="58" max="58" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="Y1" s="1" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="1"/>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="1"/>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="1"/>
+      <c r="AX1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="1"/>
+      <c r="BF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.147305589265705</v>
+        <v>0.15856298999694601</v>
       </c>
       <c r="C3">
         <v>0.14730552233469499</v>
       </c>
       <c r="D3">
-        <v>5.9669589947261403E-2</v>
+        <v>7.9929324153275194E-2</v>
       </c>
       <c r="E3">
         <v>5.9668960223347202E-2</v>
       </c>
       <c r="F3">
-        <v>3.3480873116556703E-2</v>
+        <v>6.2652886919254094E-2</v>
       </c>
       <c r="G3">
         <v>3.3484597298175399E-2</v>
@@ -572,19 +856,19 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.147308298919368</v>
+        <v>0.14715085849519199</v>
       </c>
       <c r="K3">
         <v>0.14730552233469499</v>
       </c>
       <c r="L3">
-        <v>5.9574559804369202E-2</v>
+        <v>5.8676424435556103E-2</v>
       </c>
       <c r="M3">
         <v>5.9668960223347202E-2</v>
       </c>
       <c r="N3">
-        <v>3.3503657350825201E-2</v>
+        <v>3.2598156300461402E-2</v>
       </c>
       <c r="O3">
         <v>3.3484597298175399E-2</v>
@@ -593,19 +877,19 @@
         <v>0.5</v>
       </c>
       <c r="R3">
-        <v>0.14726679252920699</v>
+        <v>0.147193635818857</v>
       </c>
       <c r="S3">
         <v>0.14730552233469499</v>
       </c>
       <c r="T3">
-        <v>5.9426978410981303E-2</v>
+        <v>5.9117467762726202E-2</v>
       </c>
       <c r="U3">
         <v>5.9668960223347202E-2</v>
       </c>
       <c r="V3">
-        <v>3.3240615452718197E-2</v>
+        <v>3.41248088177033E-2</v>
       </c>
       <c r="W3">
         <v>3.3484597298175399E-2</v>
@@ -614,42 +898,126 @@
         <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>0.15856300045747099</v>
+        <v>0.147614887504144</v>
       </c>
       <c r="AA3">
         <v>0.14730552233469499</v>
       </c>
       <c r="AB3">
-        <v>7.9929321094075301E-2</v>
+        <v>6.1106350797256702E-2</v>
       </c>
       <c r="AC3">
         <v>5.9668960223347202E-2</v>
       </c>
       <c r="AD3">
-        <v>6.2652878236839502E-2</v>
+        <v>3.51529358071105E-2</v>
       </c>
       <c r="AE3">
         <v>3.3484597298175399E-2</v>
       </c>
+      <c r="AG3">
+        <v>0.5</v>
+      </c>
+      <c r="AH3">
+        <v>0.14730545062893899</v>
+      </c>
+      <c r="AI3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AJ3">
+        <v>5.9665965479038401E-2</v>
+      </c>
+      <c r="AK3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AL3">
+        <v>3.3476183877265697E-2</v>
+      </c>
+      <c r="AM3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AO3">
+        <v>0.5</v>
+      </c>
+      <c r="AP3">
+        <v>0.147305484512298</v>
+      </c>
+      <c r="AQ3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AR3">
+        <v>5.9670361918438899E-2</v>
+      </c>
+      <c r="AS3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AT3">
+        <v>3.3466892487053902E-2</v>
+      </c>
+      <c r="AU3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AW3">
+        <v>0.5</v>
+      </c>
+      <c r="AX3">
+        <v>0.14730552234288699</v>
+      </c>
+      <c r="AY3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AZ3">
+        <v>5.9668936904707398E-2</v>
+      </c>
+      <c r="BA3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BB3">
+        <v>3.34849983261623E-2</v>
+      </c>
+      <c r="BC3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="BE3">
+        <v>0.5</v>
+      </c>
+      <c r="BF3">
+        <v>0.14730552821715301</v>
+      </c>
+      <c r="BG3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="BH3">
+        <v>5.9675439745861099E-2</v>
+      </c>
+      <c r="BI3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BJ3">
+        <v>3.3519211002488898E-2</v>
+      </c>
+      <c r="BK3">
+        <v>3.3484597298175399E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.14730492551455601</v>
+        <v>0.16849017400734301</v>
       </c>
       <c r="C4">
         <v>0.14730552232532099</v>
       </c>
       <c r="D4">
-        <v>5.97033359161128E-2</v>
+        <v>9.7899967011159106E-2</v>
       </c>
       <c r="E4">
         <v>5.9669014458022397E-2</v>
       </c>
       <c r="F4">
-        <v>3.3532232108088297E-2</v>
+        <v>8.7977007281370798E-2</v>
       </c>
       <c r="G4">
         <v>3.3484592071142898E-2</v>
@@ -658,19 +1026,19 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.147335077922428</v>
+        <v>0.14668983499155999</v>
       </c>
       <c r="K4">
         <v>0.14730552232532099</v>
       </c>
       <c r="L4">
-        <v>5.8673838877894902E-2</v>
+        <v>5.5163370364614397E-2</v>
       </c>
       <c r="M4">
         <v>5.9669014458022397E-2</v>
       </c>
       <c r="N4">
-        <v>3.4110108712878798E-2</v>
+        <v>3.2038953943817901E-2</v>
       </c>
       <c r="O4">
         <v>3.3484592071142898E-2</v>
@@ -679,19 +1047,19 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.14715087067963001</v>
+        <v>0.14687001500490601</v>
       </c>
       <c r="S4">
         <v>0.14730552232532099</v>
       </c>
       <c r="T4">
-        <v>5.8675734899333698E-2</v>
+        <v>5.7430663173597199E-2</v>
       </c>
       <c r="U4">
         <v>5.9669014458022397E-2</v>
       </c>
       <c r="V4">
-        <v>3.25958577790132E-2</v>
+        <v>3.6279476174020199E-2</v>
       </c>
       <c r="W4">
         <v>3.3484592071142898E-2</v>
@@ -700,42 +1068,126 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.16849018264150101</v>
+        <v>0.14852639204462001</v>
       </c>
       <c r="AA4">
         <v>0.14730552232532099</v>
       </c>
       <c r="AB4">
-        <v>9.7899955413377093E-2</v>
+        <v>6.4094271482838E-2</v>
       </c>
       <c r="AC4">
         <v>5.9669014458022397E-2</v>
       </c>
       <c r="AD4">
-        <v>8.7976958454205598E-2</v>
+        <v>3.9203695817604897E-2</v>
       </c>
       <c r="AE4">
         <v>3.3484592071142898E-2</v>
       </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0.14730437275948599</v>
+      </c>
+      <c r="AI4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AJ4">
+        <v>5.9638675028072699E-2</v>
+      </c>
+      <c r="AK4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AL4">
+        <v>3.3531914274015903E-2</v>
+      </c>
+      <c r="AM4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0.14730491427307901</v>
+      </c>
+      <c r="AQ4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AR4">
+        <v>5.9676993214992001E-2</v>
+      </c>
+      <c r="AS4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AT4">
+        <v>3.3174822415176698E-2</v>
+      </c>
+      <c r="AU4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>0.147305522824141</v>
+      </c>
+      <c r="AY4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AZ4">
+        <v>5.9670433759129698E-2</v>
+      </c>
+      <c r="BA4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BB4">
+        <v>3.3489163553786103E-2</v>
+      </c>
+      <c r="BC4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>0.14730561593890401</v>
+      </c>
+      <c r="BG4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="BH4">
+        <v>5.9750751170865299E-2</v>
+      </c>
+      <c r="BI4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BJ4">
+        <v>3.3611868485552698E-2</v>
+      </c>
+      <c r="BK4">
+        <v>3.3484592071142898E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.14722251322590499</v>
+        <v>0.209925204833563</v>
       </c>
       <c r="C5">
         <v>0.14730551794890101</v>
       </c>
       <c r="D5">
-        <v>5.9513875589572801E-2</v>
+        <v>0.16480573254702899</v>
       </c>
       <c r="E5">
         <v>5.9668998520714202E-2</v>
       </c>
       <c r="F5">
-        <v>3.3529082185239499E-2</v>
+        <v>0.16357792868946999</v>
       </c>
       <c r="G5">
         <v>3.3484571737725198E-2</v>
@@ -744,19 +1196,19 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.14858530597372199</v>
+        <v>0.14091404206188901</v>
       </c>
       <c r="K5">
         <v>0.14730551794890101</v>
       </c>
       <c r="L5">
-        <v>6.5208010903550107E-2</v>
+        <v>5.9752408736275499E-2</v>
       </c>
       <c r="M5">
         <v>5.9668998520714202E-2</v>
       </c>
       <c r="N5">
-        <v>5.9517892704743502E-2</v>
+        <v>6.4543318936632399E-2</v>
       </c>
       <c r="O5">
         <v>3.3484571737725198E-2</v>
@@ -765,19 +1217,19 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <v>0.14524972399511901</v>
+        <v>0.145061808639011</v>
       </c>
       <c r="S5">
         <v>0.14730551794890101</v>
       </c>
       <c r="T5">
-        <v>4.88750795743313E-2</v>
+        <v>7.1549447590796997E-2</v>
       </c>
       <c r="U5">
         <v>5.9668998520714202E-2</v>
       </c>
       <c r="V5">
-        <v>3.8846506959494202E-2</v>
+        <v>7.0436712176371305E-2</v>
       </c>
       <c r="W5">
         <v>3.3484571737725198E-2</v>
@@ -786,42 +1238,126 @@
         <v>4</v>
       </c>
       <c r="Z5">
-        <v>0.209925202782551</v>
+        <v>0.16136326477612101</v>
       </c>
       <c r="AA5">
         <v>0.14730551794890101</v>
       </c>
       <c r="AB5">
-        <v>0.164805718312271</v>
+        <v>9.2972668855905605E-2</v>
       </c>
       <c r="AC5">
         <v>5.9668998520714202E-2</v>
       </c>
       <c r="AD5">
-        <v>0.163577926973276</v>
+        <v>8.1227288332962805E-2</v>
       </c>
       <c r="AE5">
         <v>3.3484571737725198E-2</v>
       </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>0.14707257546838501</v>
+      </c>
+      <c r="AI5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AJ5">
+        <v>5.6168129475793298E-2</v>
+      </c>
+      <c r="AK5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AL5">
+        <v>3.3635563057247901E-2</v>
+      </c>
+      <c r="AM5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AO5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <v>0.147106244483697</v>
+      </c>
+      <c r="AQ5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AR5">
+        <v>5.5393879542898199E-2</v>
+      </c>
+      <c r="AS5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AT5">
+        <v>3.0536639132537999E-2</v>
+      </c>
+      <c r="AU5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>0.14730769349525</v>
+      </c>
+      <c r="AY5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AZ5">
+        <v>5.9527521868215402E-2</v>
+      </c>
+      <c r="BA5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BB5">
+        <v>3.3193229682205803E-2</v>
+      </c>
+      <c r="BC5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="BE5">
+        <v>4</v>
+      </c>
+      <c r="BF5">
+        <v>0.14724985896470899</v>
+      </c>
+      <c r="BG5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="BH5">
+        <v>5.85898810671861E-2</v>
+      </c>
+      <c r="BI5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BJ5">
+        <v>3.0282488393159598E-2</v>
+      </c>
+      <c r="BK5">
+        <v>3.3484571737725198E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.14695386514050399</v>
+        <v>0.23090875682681899</v>
       </c>
       <c r="C6">
         <v>0.14730551702408101</v>
       </c>
       <c r="D6">
-        <v>5.5500434540517299E-2</v>
+        <v>0.19430528730114099</v>
       </c>
       <c r="E6">
         <v>5.9669014416502103E-2</v>
       </c>
       <c r="F6">
-        <v>3.8745483138559002E-2</v>
+        <v>0.19364056199260599</v>
       </c>
       <c r="G6">
         <v>3.3484569525141901E-2</v>
@@ -830,19 +1366,19 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.15039142309555101</v>
+        <v>0.138845983578578</v>
       </c>
       <c r="K6">
         <v>0.14730551702408101</v>
       </c>
       <c r="L6">
-        <v>9.2260106850534998E-2</v>
+        <v>8.5554203646740004E-2</v>
       </c>
       <c r="M6">
         <v>5.9669014416502103E-2</v>
       </c>
       <c r="N6">
-        <v>9.6349776520441105E-2</v>
+        <v>8.8674218621694001E-2</v>
       </c>
       <c r="O6">
         <v>3.3484569525141901E-2</v>
@@ -851,19 +1387,19 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>0.14308143773840201</v>
+        <v>0.14766251213961201</v>
       </c>
       <c r="S6">
         <v>0.14730551702408101</v>
       </c>
       <c r="T6">
-        <v>4.9394181763379001E-2</v>
+        <v>9.7039024078021605E-2</v>
       </c>
       <c r="U6">
         <v>5.9669014416502103E-2</v>
       </c>
       <c r="V6">
-        <v>5.3771014746772899E-2</v>
+        <v>9.7102265962102904E-2</v>
       </c>
       <c r="W6">
         <v>3.3484569525141901E-2</v>
@@ -872,42 +1408,126 @@
         <v>6</v>
       </c>
       <c r="Z6">
-        <v>0.23090876512553399</v>
+        <v>0.17210512111050899</v>
       </c>
       <c r="AA6">
         <v>0.14730551702408101</v>
       </c>
       <c r="AB6">
-        <v>0.19430528419010801</v>
+        <v>0.113805253702459</v>
       </c>
       <c r="AC6">
         <v>5.9669014416502103E-2</v>
       </c>
       <c r="AD6">
-        <v>0.193640575279482</v>
+        <v>0.107191355678596</v>
       </c>
       <c r="AE6">
         <v>3.3484569525141901E-2</v>
       </c>
+      <c r="AG6">
+        <v>6</v>
+      </c>
+      <c r="AH6">
+        <v>0.14642120209998499</v>
+      </c>
+      <c r="AI6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AJ6">
+        <v>5.3017147205020598E-2</v>
+      </c>
+      <c r="AK6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AL6">
+        <v>4.1142732602785101E-2</v>
+      </c>
+      <c r="AM6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
+        <v>0.146510680238086</v>
+      </c>
+      <c r="AQ6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AR6">
+        <v>4.2921940728720999E-2</v>
+      </c>
+      <c r="AS6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AT6">
+        <v>4.06989782880499E-2</v>
+      </c>
+      <c r="AU6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AW6">
+        <v>6</v>
+      </c>
+      <c r="AX6">
+        <v>0.147317990505232</v>
+      </c>
+      <c r="AY6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AZ6">
+        <v>5.4270000103228903E-2</v>
+      </c>
+      <c r="BA6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BB6">
+        <v>3.0891736420649199E-2</v>
+      </c>
+      <c r="BC6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>0.14709252008698301</v>
+      </c>
+      <c r="BG6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="BH6">
+        <v>3.4728078157081399E-2</v>
+      </c>
+      <c r="BI6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BJ6">
+        <v>4.5199291953158499E-2</v>
+      </c>
+      <c r="BK6">
+        <v>3.3484569525141901E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.14629203027460899</v>
+        <v>0.246979181957309</v>
       </c>
       <c r="C7">
         <v>0.147305522114003</v>
       </c>
       <c r="D7">
-        <v>5.4954900232897501E-2</v>
+        <v>0.215161636481952</v>
       </c>
       <c r="E7">
         <v>5.96689435415921E-2</v>
       </c>
       <c r="F7">
-        <v>4.2434060744661002E-2</v>
+        <v>0.21468409316439299</v>
       </c>
       <c r="G7">
         <v>3.3484653661789397E-2</v>
@@ -916,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>0.15841531426320599</v>
+        <v>0.14291723844058801</v>
       </c>
       <c r="K7">
         <v>0.147305522114003</v>
       </c>
       <c r="L7">
-        <v>0.12566883155051201</v>
+        <v>0.10669593526028701</v>
       </c>
       <c r="M7">
         <v>5.96689435415921E-2</v>
       </c>
       <c r="N7">
-        <v>0.12909304429583901</v>
+        <v>0.109493818117414</v>
       </c>
       <c r="O7">
         <v>3.3484653661789397E-2</v>
@@ -937,19 +1557,19 @@
         <v>8</v>
       </c>
       <c r="R7">
-        <v>0.14099104495224099</v>
+        <v>0.15543617768749499</v>
       </c>
       <c r="S7">
         <v>0.147305522114003</v>
       </c>
       <c r="T7">
-        <v>5.92851397452153E-2</v>
+        <v>0.119727566358426</v>
       </c>
       <c r="U7">
         <v>5.96689435415921E-2</v>
       </c>
       <c r="V7">
-        <v>6.3924325745773697E-2</v>
+        <v>0.120602221203105</v>
       </c>
       <c r="W7">
         <v>3.3484653661789397E-2</v>
@@ -958,42 +1578,126 @@
         <v>8</v>
       </c>
       <c r="Z7">
-        <v>0.24697917227895599</v>
+        <v>0.18315681311422399</v>
       </c>
       <c r="AA7">
         <v>0.147305522114003</v>
       </c>
       <c r="AB7">
-        <v>0.21516163141163699</v>
+        <v>0.13481731720765699</v>
       </c>
       <c r="AC7">
         <v>5.96689435415921E-2</v>
       </c>
       <c r="AD7">
-        <v>0.21468405893534401</v>
+        <v>0.13117982104589501</v>
       </c>
       <c r="AE7">
         <v>3.3484653661789397E-2</v>
       </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>0.145301646739802</v>
+      </c>
+      <c r="AI7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AJ7">
+        <v>5.5507121170111397E-2</v>
+      </c>
+      <c r="AK7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AL7">
+        <v>4.7192851574882698E-2</v>
+      </c>
+      <c r="AM7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AO7">
+        <v>8</v>
+      </c>
+      <c r="AP7">
+        <v>0.144501043033818</v>
+      </c>
+      <c r="AQ7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AR7">
+        <v>4.6325224319712498E-2</v>
+      </c>
+      <c r="AS7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AT7">
+        <v>4.5198051328162098E-2</v>
+      </c>
+      <c r="AU7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AW7">
+        <v>8</v>
+      </c>
+      <c r="AX7">
+        <v>0.14718558403158299</v>
+      </c>
+      <c r="AY7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AZ7">
+        <v>5.1622731527162E-2</v>
+      </c>
+      <c r="BA7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BB7">
+        <v>3.1509763854379501E-2</v>
+      </c>
+      <c r="BC7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>0.14517661903243601</v>
+      </c>
+      <c r="BG7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="BH7">
+        <v>3.9024029148288598E-2</v>
+      </c>
+      <c r="BI7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BJ7">
+        <v>4.3282985873185402E-2</v>
+      </c>
+      <c r="BK7">
+        <v>3.3484653661789397E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.14606173572459699</v>
+        <v>0.25712032150441699</v>
       </c>
       <c r="C8">
         <v>0.147305530201569</v>
       </c>
       <c r="D8">
-        <v>5.8140767769775399E-2</v>
+        <v>0.228111619999284</v>
       </c>
       <c r="E8">
         <v>5.9668886015388903E-2</v>
       </c>
       <c r="F8">
-        <v>4.632838722944E-2</v>
+        <v>0.227727692016055</v>
       </c>
       <c r="G8">
         <v>3.3484518764764298E-2</v>
@@ -1002,19 +1706,19 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>0.163130506715952</v>
+        <v>0.146511824768181</v>
       </c>
       <c r="K8">
         <v>0.147305530201569</v>
       </c>
       <c r="L8">
-        <v>0.13202915176808999</v>
+        <v>0.11849808739494599</v>
       </c>
       <c r="M8">
         <v>5.9668886015388903E-2</v>
       </c>
       <c r="N8">
-        <v>0.139921278163774</v>
+        <v>0.12052673122843</v>
       </c>
       <c r="O8">
         <v>3.3484518764764298E-2</v>
@@ -1023,19 +1727,19 @@
         <v>10</v>
       </c>
       <c r="R8">
-        <v>0.14022369162696699</v>
+        <v>0.16063631697066699</v>
       </c>
       <c r="S8">
         <v>0.147305530201569</v>
       </c>
       <c r="T8">
-        <v>6.6551138277094302E-2</v>
+        <v>0.132074286537746</v>
       </c>
       <c r="U8">
         <v>5.9668886015388903E-2</v>
       </c>
       <c r="V8">
-        <v>7.01759049649643E-2</v>
+        <v>0.13259399591372301</v>
       </c>
       <c r="W8">
         <v>3.3484518764764298E-2</v>
@@ -1044,31 +1748,1384 @@
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>0.25712032401462098</v>
+        <v>0.19013733074025199</v>
       </c>
       <c r="AA8">
         <v>0.147305530201569</v>
       </c>
       <c r="AB8">
-        <v>0.22811161364507401</v>
+        <v>0.14487516507940501</v>
       </c>
       <c r="AC8">
         <v>5.9668886015388903E-2</v>
       </c>
       <c r="AD8">
-        <v>0.227727698506003</v>
+        <v>0.14184955402094601</v>
       </c>
       <c r="AE8">
         <v>3.3484518764764298E-2</v>
       </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>0.144804728418053</v>
+      </c>
+      <c r="AI8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AJ8">
+        <v>5.8722125058659397E-2</v>
+      </c>
+      <c r="AK8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AL8">
+        <v>5.1458677286046799E-2</v>
+      </c>
+      <c r="AM8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>0.14390528053739801</v>
+      </c>
+      <c r="AQ8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AR8">
+        <v>4.8398627250362702E-2</v>
+      </c>
+      <c r="AS8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AT8">
+        <v>5.0047024366789303E-2</v>
+      </c>
+      <c r="AU8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AW8">
+        <v>10</v>
+      </c>
+      <c r="AX8">
+        <v>0.14719891010755501</v>
+      </c>
+      <c r="AY8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AZ8">
+        <v>4.4813811118295001E-2</v>
+      </c>
+      <c r="BA8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BB8">
+        <v>3.5743136001562599E-2</v>
+      </c>
+      <c r="BC8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="BE8">
+        <v>10</v>
+      </c>
+      <c r="BF8">
+        <v>0.14491851521820501</v>
+      </c>
+      <c r="BG8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="BH8">
+        <v>4.6562127361556398E-2</v>
+      </c>
+      <c r="BI8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BJ8">
+        <v>5.5243406562960201E-2</v>
+      </c>
+      <c r="BK8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="Z10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AP10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AX10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BF10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>0.14730552233892499</v>
+      </c>
+      <c r="C12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="D12">
+        <v>5.9669054892140201E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.3484149312527502E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.14844580327715301</v>
+      </c>
+      <c r="K12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="L12">
+        <v>6.3944313305011505E-2</v>
+      </c>
+      <c r="M12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="N12">
+        <v>3.6773840491200402E-2</v>
+      </c>
+      <c r="O12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0.147305589265705</v>
+      </c>
+      <c r="S12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="T12">
+        <v>5.9669589947261403E-2</v>
+      </c>
+      <c r="U12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="V12">
+        <v>3.3480873116556703E-2</v>
+      </c>
+      <c r="W12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>0.147308298919368</v>
+      </c>
+      <c r="AA12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AB12">
+        <v>5.9574559804369202E-2</v>
+      </c>
+      <c r="AC12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AD12">
+        <v>3.3503657350825201E-2</v>
+      </c>
+      <c r="AE12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AG12">
+        <v>0.5</v>
+      </c>
+      <c r="AH12">
+        <v>0.14726679252920699</v>
+      </c>
+      <c r="AI12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AJ12">
+        <v>5.9426978410981303E-2</v>
+      </c>
+      <c r="AK12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AL12">
+        <v>3.3240615452718197E-2</v>
+      </c>
+      <c r="AM12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AO12">
+        <v>0.5</v>
+      </c>
+      <c r="AP12">
+        <v>0.14730557446045101</v>
+      </c>
+      <c r="AQ12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AR12">
+        <v>5.9666373801980803E-2</v>
+      </c>
+      <c r="AS12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AT12">
+        <v>3.3495191788551398E-2</v>
+      </c>
+      <c r="AU12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AW12">
+        <v>0.5</v>
+      </c>
+      <c r="AX12">
+        <v>0.14730657797874</v>
+      </c>
+      <c r="AY12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AZ12">
+        <v>5.9637836955045299E-2</v>
+      </c>
+      <c r="BA12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BB12">
+        <v>3.3563713207108103E-2</v>
+      </c>
+      <c r="BC12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="BE12">
+        <v>0.5</v>
+      </c>
+      <c r="BF12">
+        <v>0.14730458646771599</v>
+      </c>
+      <c r="BG12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="BH12">
+        <v>5.9585096565643203E-2</v>
+      </c>
+      <c r="BI12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BJ12">
+        <v>3.3344832171098501E-2</v>
+      </c>
+      <c r="BK12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.14730552261037599</v>
+      </c>
+      <c r="C13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="D13">
+        <v>5.9668120346984897E-2</v>
+      </c>
+      <c r="E13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.3468979644560297E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.151997469526372</v>
+      </c>
+      <c r="K13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="L13">
+        <v>7.3969235542799799E-2</v>
+      </c>
+      <c r="M13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="N13">
+        <v>5.3154889671834002E-2</v>
+      </c>
+      <c r="O13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.14730492551455601</v>
+      </c>
+      <c r="S13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="T13">
+        <v>5.97033359161128E-2</v>
+      </c>
+      <c r="U13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="V13">
+        <v>3.3532232108088297E-2</v>
+      </c>
+      <c r="W13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0.147335077922428</v>
+      </c>
+      <c r="AA13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AB13">
+        <v>5.8673838877894902E-2</v>
+      </c>
+      <c r="AC13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.4110108712878798E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0.14715087067963001</v>
+      </c>
+      <c r="AI13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AJ13">
+        <v>5.8675734899333698E-2</v>
+      </c>
+      <c r="AK13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AL13">
+        <v>3.25958577790132E-2</v>
+      </c>
+      <c r="AM13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0.14730629058834299</v>
+      </c>
+      <c r="AQ13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AR13">
+        <v>5.9628558025058398E-2</v>
+      </c>
+      <c r="AS13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AT13">
+        <v>3.3672159890560202E-2</v>
+      </c>
+      <c r="AU13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>0.14731304271644499</v>
+      </c>
+      <c r="AY13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AZ13">
+        <v>5.9403385393420202E-2</v>
+      </c>
+      <c r="BA13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BB13">
+        <v>3.4033174122419102E-2</v>
+      </c>
+      <c r="BC13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>0.14729783458766799</v>
+      </c>
+      <c r="BG13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="BH13">
+        <v>5.9049301447447397E-2</v>
+      </c>
+      <c r="BI13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2910648573935698E-2</v>
+      </c>
+      <c r="BK13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.14730219728911001</v>
+      </c>
+      <c r="C14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="D14">
+        <v>5.9497024246719203E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.3181745649920699E-2</v>
+      </c>
+      <c r="G14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.190714503547491</v>
+      </c>
+      <c r="K14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="L14">
+        <v>0.15267699340091501</v>
+      </c>
+      <c r="M14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.155442547851319</v>
+      </c>
+      <c r="O14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>0.14722251322590499</v>
+      </c>
+      <c r="S14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="T14">
+        <v>5.9513875589572801E-2</v>
+      </c>
+      <c r="U14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="V14">
+        <v>3.3529082185239499E-2</v>
+      </c>
+      <c r="W14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>0.14858530597372199</v>
+      </c>
+      <c r="AA14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AB14">
+        <v>6.5208010903550107E-2</v>
+      </c>
+      <c r="AC14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AD14">
+        <v>5.9517892704743502E-2</v>
+      </c>
+      <c r="AE14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+      <c r="AH14">
+        <v>0.14524972399511901</v>
+      </c>
+      <c r="AI14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AJ14">
+        <v>4.88750795743313E-2</v>
+      </c>
+      <c r="AK14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AL14">
+        <v>3.8846506959494202E-2</v>
+      </c>
+      <c r="AM14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <v>0.14746276669135699</v>
+      </c>
+      <c r="AQ14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AR14">
+        <v>5.8765642869799697E-2</v>
+      </c>
+      <c r="AS14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AT14">
+        <v>3.5523779926692797E-2</v>
+      </c>
+      <c r="AU14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>0.14779680793625499</v>
+      </c>
+      <c r="AY14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AZ14">
+        <v>5.9080273704583901E-2</v>
+      </c>
+      <c r="BA14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BB14">
+        <v>3.9680927717822903E-2</v>
+      </c>
+      <c r="BC14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="BE14">
+        <v>4</v>
+      </c>
+      <c r="BF14">
+        <v>0.147077861423203</v>
+      </c>
+      <c r="BG14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="BH14">
+        <v>5.3283070608380098E-2</v>
+      </c>
+      <c r="BI14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BJ14">
+        <v>3.7779614086049497E-2</v>
+      </c>
+      <c r="BK14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.147286245679985</v>
+      </c>
+      <c r="C15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="D15">
+        <v>5.5763609345185997E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.3135183049895801E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>0.21328761674452401</v>
+      </c>
+      <c r="K15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="L15">
+        <v>0.189151862546873</v>
+      </c>
+      <c r="M15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.18435957423410401</v>
+      </c>
+      <c r="O15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0.14695386514050399</v>
+      </c>
+      <c r="S15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="T15">
+        <v>5.5500434540517299E-2</v>
+      </c>
+      <c r="U15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="V15">
+        <v>3.8745483138559002E-2</v>
+      </c>
+      <c r="W15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>0.15039142309555101</v>
+      </c>
+      <c r="AA15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AB15">
+        <v>9.2260106850534998E-2</v>
+      </c>
+      <c r="AC15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AD15">
+        <v>9.6349776520441105E-2</v>
+      </c>
+      <c r="AE15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AG15">
+        <v>6</v>
+      </c>
+      <c r="AH15">
+        <v>0.14308143773840201</v>
+      </c>
+      <c r="AI15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AJ15">
+        <v>4.9394181763379001E-2</v>
+      </c>
+      <c r="AK15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AL15">
+        <v>5.3771014746772899E-2</v>
+      </c>
+      <c r="AM15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AO15">
+        <v>6</v>
+      </c>
+      <c r="AP15">
+        <v>0.14783635642377299</v>
+      </c>
+      <c r="AQ15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AR15">
+        <v>5.9086728500455703E-2</v>
+      </c>
+      <c r="AS15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AT15">
+        <v>3.9534824702797802E-2</v>
+      </c>
+      <c r="AU15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
+        <v>0.14867082490953601</v>
+      </c>
+      <c r="AY15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AZ15">
+        <v>6.4574177747589806E-2</v>
+      </c>
+      <c r="BA15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BB15">
+        <v>5.1220501992390199E-2</v>
+      </c>
+      <c r="BC15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="BE15">
+        <v>6</v>
+      </c>
+      <c r="BF15">
+        <v>0.146819784609941</v>
+      </c>
+      <c r="BG15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="BH15">
+        <v>5.3481955224391198E-2</v>
+      </c>
+      <c r="BI15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BJ15">
+        <v>4.86320327832842E-2</v>
+      </c>
+      <c r="BK15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.14705486880051699</v>
+      </c>
+      <c r="C16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="D16">
+        <v>5.34809346070216E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.3919169616103202E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>0.23219301893613101</v>
+      </c>
+      <c r="K16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="L16">
+        <v>0.21489293993346301</v>
+      </c>
+      <c r="M16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.21649781046248201</v>
+      </c>
+      <c r="O16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>0.14629203027460899</v>
+      </c>
+      <c r="S16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="T16">
+        <v>5.4954900232897501E-2</v>
+      </c>
+      <c r="U16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="V16">
+        <v>4.2434060744661002E-2</v>
+      </c>
+      <c r="W16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>0.15841531426320599</v>
+      </c>
+      <c r="AA16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AB16">
+        <v>0.12566883155051201</v>
+      </c>
+      <c r="AC16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AD16">
+        <v>0.12909304429583901</v>
+      </c>
+      <c r="AE16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AG16">
+        <v>8</v>
+      </c>
+      <c r="AH16">
+        <v>0.14099104495224099</v>
+      </c>
+      <c r="AI16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AJ16">
+        <v>5.92851397452153E-2</v>
+      </c>
+      <c r="AK16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AL16">
+        <v>6.3924325745773697E-2</v>
+      </c>
+      <c r="AM16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AO16">
+        <v>8</v>
+      </c>
+      <c r="AP16">
+        <v>0.14894857704987199</v>
+      </c>
+      <c r="AQ16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AR16">
+        <v>6.1354651894660203E-2</v>
+      </c>
+      <c r="AS16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AT16">
+        <v>4.3510766589221497E-2</v>
+      </c>
+      <c r="AU16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AW16">
+        <v>8</v>
+      </c>
+      <c r="AX16">
+        <v>0.15096878677804401</v>
+      </c>
+      <c r="AY16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AZ16">
+        <v>7.2905375786021201E-2</v>
+      </c>
+      <c r="BA16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BB16">
+        <v>6.2817162390458897E-2</v>
+      </c>
+      <c r="BC16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="BE16">
+        <v>8</v>
+      </c>
+      <c r="BF16">
+        <v>0.14716971396008099</v>
+      </c>
+      <c r="BG16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="BH16">
+        <v>6.0817910740077703E-2</v>
+      </c>
+      <c r="BI16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BJ16">
+        <v>5.6909224391874701E-2</v>
+      </c>
+      <c r="BK16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.14701834116712201</v>
+      </c>
+      <c r="C17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="D17">
+        <v>5.2021241625073003E-2</v>
+      </c>
+      <c r="E17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.64305828371147E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0.24355927800055699</v>
+      </c>
+      <c r="K17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="L17">
+        <v>0.22930759238817999</v>
+      </c>
+      <c r="M17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.22925029743985201</v>
+      </c>
+      <c r="O17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0.14606173572459699</v>
+      </c>
+      <c r="S17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="T17">
+        <v>5.8140767769775399E-2</v>
+      </c>
+      <c r="U17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="V17">
+        <v>4.632838722944E-2</v>
+      </c>
+      <c r="W17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>0.163130506715952</v>
+      </c>
+      <c r="AA17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AB17">
+        <v>0.13202915176808999</v>
+      </c>
+      <c r="AC17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AD17">
+        <v>0.139921278163774</v>
+      </c>
+      <c r="AE17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>0.14022369162696699</v>
+      </c>
+      <c r="AI17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AJ17">
+        <v>6.6551138277094302E-2</v>
+      </c>
+      <c r="AK17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AL17">
+        <v>7.01759049649643E-2</v>
+      </c>
+      <c r="AM17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>0.14959577177987801</v>
+      </c>
+      <c r="AQ17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AR17">
+        <v>6.4260512061984298E-2</v>
+      </c>
+      <c r="AS17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AT17">
+        <v>4.7257257290128599E-2</v>
+      </c>
+      <c r="AU17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AW17">
+        <v>10</v>
+      </c>
+      <c r="AX17">
+        <v>0.152261045707617</v>
+      </c>
+      <c r="AY17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AZ17">
+        <v>7.7531795558156105E-2</v>
+      </c>
+      <c r="BA17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BB17">
+        <v>6.8886612068766104E-2</v>
+      </c>
+      <c r="BC17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="BE17">
+        <v>10</v>
+      </c>
+      <c r="BF17">
+        <v>0.147906843564128</v>
+      </c>
+      <c r="BG17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="BH17">
+        <v>6.4682373079065603E-2</v>
+      </c>
+      <c r="BI17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BJ17">
+        <v>6.1844862028467701E-2</v>
+      </c>
+      <c r="BK17">
+        <v>3.3484518764764298E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="16">
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="Z10:AE10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AP10:AU10"/>
+    <mergeCell ref="AX10:BC10"/>
+    <mergeCell ref="BF1:BK1"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="BF10:BK10"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="R1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF435D5B-2109-407B-9548-A174EBAF3DB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68652CF-8BB4-4C36-A1F8-883F893F1577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hopf" sheetId="1" r:id="rId1"/>
+    <sheet name="Advection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="68">
   <si>
     <t>1st orderdop853</t>
   </si>
@@ -259,8 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +553,2592 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="BA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="56" width="18" customWidth="1"/>
+    <col min="58" max="58" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="1"/>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="1"/>
+      <c r="AH1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="1"/>
+      <c r="AX1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="1"/>
+      <c r="BF1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>0.15856298999694601</v>
+      </c>
+      <c r="C3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="D3">
+        <v>7.9929324153275194E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.2652886919254094E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.14715085849519199</v>
+      </c>
+      <c r="K3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="L3">
+        <v>5.8676424435556103E-2</v>
+      </c>
+      <c r="M3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.2598156300461402E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>0.147193635818857</v>
+      </c>
+      <c r="S3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="T3">
+        <v>5.9117467762726202E-2</v>
+      </c>
+      <c r="U3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="V3">
+        <v>3.41248088177033E-2</v>
+      </c>
+      <c r="W3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.147614887504144</v>
+      </c>
+      <c r="AA3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AB3">
+        <v>6.1106350797256702E-2</v>
+      </c>
+      <c r="AC3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AD3">
+        <v>3.51529358071105E-2</v>
+      </c>
+      <c r="AE3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AG3">
+        <v>0.5</v>
+      </c>
+      <c r="AH3">
+        <v>0.14730545062893899</v>
+      </c>
+      <c r="AI3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AJ3">
+        <v>5.9665965479038401E-2</v>
+      </c>
+      <c r="AK3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AL3">
+        <v>3.3476183877265697E-2</v>
+      </c>
+      <c r="AM3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AO3">
+        <v>0.5</v>
+      </c>
+      <c r="AP3">
+        <v>0.147305484512298</v>
+      </c>
+      <c r="AQ3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AR3">
+        <v>5.9670361918438899E-2</v>
+      </c>
+      <c r="AS3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AT3">
+        <v>3.3466892487053902E-2</v>
+      </c>
+      <c r="AU3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AW3">
+        <v>0.5</v>
+      </c>
+      <c r="AX3">
+        <v>0.14730552234288699</v>
+      </c>
+      <c r="AY3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AZ3">
+        <v>5.9668936904707398E-2</v>
+      </c>
+      <c r="BA3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BB3">
+        <v>3.34849983261623E-2</v>
+      </c>
+      <c r="BC3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="BE3">
+        <v>0.5</v>
+      </c>
+      <c r="BF3">
+        <v>0.14730552821715301</v>
+      </c>
+      <c r="BG3">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="BH3">
+        <v>5.9675439745861099E-2</v>
+      </c>
+      <c r="BI3">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BJ3">
+        <v>3.3519211002488898E-2</v>
+      </c>
+      <c r="BK3">
+        <v>3.3484597298175399E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.16849017400734301</v>
+      </c>
+      <c r="C4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="D4">
+        <v>9.7899967011159106E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="F4">
+        <v>8.7977007281370798E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.14668983499155999</v>
+      </c>
+      <c r="K4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="L4">
+        <v>5.5163370364614397E-2</v>
+      </c>
+      <c r="M4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="N4">
+        <v>3.2038953943817901E-2</v>
+      </c>
+      <c r="O4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.14687001500490601</v>
+      </c>
+      <c r="S4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="T4">
+        <v>5.7430663173597199E-2</v>
+      </c>
+      <c r="U4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="V4">
+        <v>3.6279476174020199E-2</v>
+      </c>
+      <c r="W4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0.14852639204462001</v>
+      </c>
+      <c r="AA4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AB4">
+        <v>6.4094271482838E-2</v>
+      </c>
+      <c r="AC4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AD4">
+        <v>3.9203695817604897E-2</v>
+      </c>
+      <c r="AE4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0.14730437275948599</v>
+      </c>
+      <c r="AI4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AJ4">
+        <v>5.9638675028072699E-2</v>
+      </c>
+      <c r="AK4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AL4">
+        <v>3.3531914274015903E-2</v>
+      </c>
+      <c r="AM4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0.14730491427307901</v>
+      </c>
+      <c r="AQ4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AR4">
+        <v>5.9676993214992001E-2</v>
+      </c>
+      <c r="AS4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AT4">
+        <v>3.3174822415176698E-2</v>
+      </c>
+      <c r="AU4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>0.147305522824141</v>
+      </c>
+      <c r="AY4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AZ4">
+        <v>5.9670433759129698E-2</v>
+      </c>
+      <c r="BA4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BB4">
+        <v>3.3489163553786103E-2</v>
+      </c>
+      <c r="BC4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>0.14730561593890401</v>
+      </c>
+      <c r="BG4">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="BH4">
+        <v>5.9750751170865299E-2</v>
+      </c>
+      <c r="BI4">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BJ4">
+        <v>3.3611868485552698E-2</v>
+      </c>
+      <c r="BK4">
+        <v>3.3484592071142898E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.209925204833563</v>
+      </c>
+      <c r="C5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="D5">
+        <v>0.16480573254702899</v>
+      </c>
+      <c r="E5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.16357792868946999</v>
+      </c>
+      <c r="G5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.14091404206188901</v>
+      </c>
+      <c r="K5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="L5">
+        <v>5.9752408736275499E-2</v>
+      </c>
+      <c r="M5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="N5">
+        <v>6.4543318936632399E-2</v>
+      </c>
+      <c r="O5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>0.145061808639011</v>
+      </c>
+      <c r="S5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="T5">
+        <v>7.1549447590796997E-2</v>
+      </c>
+      <c r="U5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="V5">
+        <v>7.0436712176371305E-2</v>
+      </c>
+      <c r="W5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>0.16136326477612101</v>
+      </c>
+      <c r="AA5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AB5">
+        <v>9.2972668855905605E-2</v>
+      </c>
+      <c r="AC5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AD5">
+        <v>8.1227288332962805E-2</v>
+      </c>
+      <c r="AE5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>0.14707257546838501</v>
+      </c>
+      <c r="AI5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AJ5">
+        <v>5.6168129475793298E-2</v>
+      </c>
+      <c r="AK5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AL5">
+        <v>3.3635563057247901E-2</v>
+      </c>
+      <c r="AM5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AO5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <v>0.147106244483697</v>
+      </c>
+      <c r="AQ5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AR5">
+        <v>5.5393879542898199E-2</v>
+      </c>
+      <c r="AS5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AT5">
+        <v>3.0536639132537999E-2</v>
+      </c>
+      <c r="AU5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>0.14730769349525</v>
+      </c>
+      <c r="AY5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AZ5">
+        <v>5.9527521868215402E-2</v>
+      </c>
+      <c r="BA5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BB5">
+        <v>3.3193229682205803E-2</v>
+      </c>
+      <c r="BC5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="BE5">
+        <v>4</v>
+      </c>
+      <c r="BF5">
+        <v>0.14724985896470899</v>
+      </c>
+      <c r="BG5">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="BH5">
+        <v>5.85898810671861E-2</v>
+      </c>
+      <c r="BI5">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BJ5">
+        <v>3.0282488393159598E-2</v>
+      </c>
+      <c r="BK5">
+        <v>3.3484571737725198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.23090875682681899</v>
+      </c>
+      <c r="C6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="D6">
+        <v>0.19430528730114099</v>
+      </c>
+      <c r="E6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.19364056199260599</v>
+      </c>
+      <c r="G6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>0.138845983578578</v>
+      </c>
+      <c r="K6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="L6">
+        <v>8.5554203646740004E-2</v>
+      </c>
+      <c r="M6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="N6">
+        <v>8.8674218621694001E-2</v>
+      </c>
+      <c r="O6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>0.14766251213961201</v>
+      </c>
+      <c r="S6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="T6">
+        <v>9.7039024078021605E-2</v>
+      </c>
+      <c r="U6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="V6">
+        <v>9.7102265962102904E-2</v>
+      </c>
+      <c r="W6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>0.17210512111050899</v>
+      </c>
+      <c r="AA6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AB6">
+        <v>0.113805253702459</v>
+      </c>
+      <c r="AC6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AD6">
+        <v>0.107191355678596</v>
+      </c>
+      <c r="AE6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AG6">
+        <v>6</v>
+      </c>
+      <c r="AH6">
+        <v>0.14642120209998499</v>
+      </c>
+      <c r="AI6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AJ6">
+        <v>5.3017147205020598E-2</v>
+      </c>
+      <c r="AK6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AL6">
+        <v>4.1142732602785101E-2</v>
+      </c>
+      <c r="AM6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
+        <v>0.146510680238086</v>
+      </c>
+      <c r="AQ6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AR6">
+        <v>4.2921940728720999E-2</v>
+      </c>
+      <c r="AS6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AT6">
+        <v>4.06989782880499E-2</v>
+      </c>
+      <c r="AU6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AW6">
+        <v>6</v>
+      </c>
+      <c r="AX6">
+        <v>0.147317990505232</v>
+      </c>
+      <c r="AY6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AZ6">
+        <v>5.4270000103228903E-2</v>
+      </c>
+      <c r="BA6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BB6">
+        <v>3.0891736420649199E-2</v>
+      </c>
+      <c r="BC6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>0.14709252008698301</v>
+      </c>
+      <c r="BG6">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="BH6">
+        <v>3.4728078157081399E-2</v>
+      </c>
+      <c r="BI6">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BJ6">
+        <v>4.5199291953158499E-2</v>
+      </c>
+      <c r="BK6">
+        <v>3.3484569525141901E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.246979181957309</v>
+      </c>
+      <c r="C7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="D7">
+        <v>0.215161636481952</v>
+      </c>
+      <c r="E7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.21468409316439299</v>
+      </c>
+      <c r="G7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>0.14291723844058801</v>
+      </c>
+      <c r="K7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="L7">
+        <v>0.10669593526028701</v>
+      </c>
+      <c r="M7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.109493818117414</v>
+      </c>
+      <c r="O7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>0.15543617768749499</v>
+      </c>
+      <c r="S7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="T7">
+        <v>0.119727566358426</v>
+      </c>
+      <c r="U7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.120602221203105</v>
+      </c>
+      <c r="W7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>0.18315681311422399</v>
+      </c>
+      <c r="AA7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AB7">
+        <v>0.13481731720765699</v>
+      </c>
+      <c r="AC7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AD7">
+        <v>0.13117982104589501</v>
+      </c>
+      <c r="AE7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>0.145301646739802</v>
+      </c>
+      <c r="AI7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AJ7">
+        <v>5.5507121170111397E-2</v>
+      </c>
+      <c r="AK7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AL7">
+        <v>4.7192851574882698E-2</v>
+      </c>
+      <c r="AM7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AO7">
+        <v>8</v>
+      </c>
+      <c r="AP7">
+        <v>0.144501043033818</v>
+      </c>
+      <c r="AQ7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AR7">
+        <v>4.6325224319712498E-2</v>
+      </c>
+      <c r="AS7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AT7">
+        <v>4.5198051328162098E-2</v>
+      </c>
+      <c r="AU7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AW7">
+        <v>8</v>
+      </c>
+      <c r="AX7">
+        <v>0.14718558403158299</v>
+      </c>
+      <c r="AY7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AZ7">
+        <v>5.1622731527162E-2</v>
+      </c>
+      <c r="BA7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BB7">
+        <v>3.1509763854379501E-2</v>
+      </c>
+      <c r="BC7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>0.14517661903243601</v>
+      </c>
+      <c r="BG7">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="BH7">
+        <v>3.9024029148288598E-2</v>
+      </c>
+      <c r="BI7">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BJ7">
+        <v>4.3282985873185402E-2</v>
+      </c>
+      <c r="BK7">
+        <v>3.3484653661789397E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.25712032150441699</v>
+      </c>
+      <c r="C8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="D8">
+        <v>0.228111619999284</v>
+      </c>
+      <c r="E8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.227727692016055</v>
+      </c>
+      <c r="G8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0.146511824768181</v>
+      </c>
+      <c r="K8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="L8">
+        <v>0.11849808739494599</v>
+      </c>
+      <c r="M8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.12052673122843</v>
+      </c>
+      <c r="O8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>0.16063631697066699</v>
+      </c>
+      <c r="S8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="T8">
+        <v>0.132074286537746</v>
+      </c>
+      <c r="U8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="V8">
+        <v>0.13259399591372301</v>
+      </c>
+      <c r="W8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>0.19013733074025199</v>
+      </c>
+      <c r="AA8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AB8">
+        <v>0.14487516507940501</v>
+      </c>
+      <c r="AC8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AD8">
+        <v>0.14184955402094601</v>
+      </c>
+      <c r="AE8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>0.144804728418053</v>
+      </c>
+      <c r="AI8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AJ8">
+        <v>5.8722125058659397E-2</v>
+      </c>
+      <c r="AK8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AL8">
+        <v>5.1458677286046799E-2</v>
+      </c>
+      <c r="AM8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>0.14390528053739801</v>
+      </c>
+      <c r="AQ8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AR8">
+        <v>4.8398627250362702E-2</v>
+      </c>
+      <c r="AS8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AT8">
+        <v>5.0047024366789303E-2</v>
+      </c>
+      <c r="AU8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AW8">
+        <v>10</v>
+      </c>
+      <c r="AX8">
+        <v>0.14719891010755501</v>
+      </c>
+      <c r="AY8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AZ8">
+        <v>4.4813811118295001E-2</v>
+      </c>
+      <c r="BA8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BB8">
+        <v>3.5743136001562599E-2</v>
+      </c>
+      <c r="BC8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="BE8">
+        <v>10</v>
+      </c>
+      <c r="BF8">
+        <v>0.14491851521820501</v>
+      </c>
+      <c r="BG8">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="BH8">
+        <v>4.6562127361556398E-2</v>
+      </c>
+      <c r="BI8">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BJ8">
+        <v>5.5243406562960201E-2</v>
+      </c>
+      <c r="BK8">
+        <v>3.3484518764764298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AH10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AP10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AX10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BF10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>0.14730552233892499</v>
+      </c>
+      <c r="C12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="D12">
+        <v>5.9669054892140201E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.3484149312527502E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.14844580327715301</v>
+      </c>
+      <c r="K12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="L12">
+        <v>6.3944313305011505E-2</v>
+      </c>
+      <c r="M12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="N12">
+        <v>3.6773840491200402E-2</v>
+      </c>
+      <c r="O12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0.147305589265705</v>
+      </c>
+      <c r="S12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="T12">
+        <v>5.9669589947261403E-2</v>
+      </c>
+      <c r="U12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="V12">
+        <v>3.3480873116556703E-2</v>
+      </c>
+      <c r="W12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>0.147308298919368</v>
+      </c>
+      <c r="AA12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AB12">
+        <v>5.9574559804369202E-2</v>
+      </c>
+      <c r="AC12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AD12">
+        <v>3.3503657350825201E-2</v>
+      </c>
+      <c r="AE12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AG12">
+        <v>0.5</v>
+      </c>
+      <c r="AH12">
+        <v>0.14726679252920699</v>
+      </c>
+      <c r="AI12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AJ12">
+        <v>5.9426978410981303E-2</v>
+      </c>
+      <c r="AK12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AL12">
+        <v>3.3240615452718197E-2</v>
+      </c>
+      <c r="AM12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AO12">
+        <v>0.5</v>
+      </c>
+      <c r="AP12">
+        <v>0.14730557446045101</v>
+      </c>
+      <c r="AQ12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AR12">
+        <v>5.9666373801980803E-2</v>
+      </c>
+      <c r="AS12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="AT12">
+        <v>3.3495191788551398E-2</v>
+      </c>
+      <c r="AU12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="AW12">
+        <v>0.5</v>
+      </c>
+      <c r="AX12">
+        <v>0.14730657797874</v>
+      </c>
+      <c r="AY12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="AZ12">
+        <v>5.9637836955045299E-2</v>
+      </c>
+      <c r="BA12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BB12">
+        <v>3.3563713207108103E-2</v>
+      </c>
+      <c r="BC12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+      <c r="BE12">
+        <v>0.5</v>
+      </c>
+      <c r="BF12">
+        <v>0.14730458646771599</v>
+      </c>
+      <c r="BG12">
+        <v>0.14730552233469499</v>
+      </c>
+      <c r="BH12">
+        <v>5.9585096565643203E-2</v>
+      </c>
+      <c r="BI12">
+        <v>5.9668960223347202E-2</v>
+      </c>
+      <c r="BJ12">
+        <v>3.3344832171098501E-2</v>
+      </c>
+      <c r="BK12">
+        <v>3.3484597298175399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.14730552261037599</v>
+      </c>
+      <c r="C13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="D13">
+        <v>5.9668120346984897E-2</v>
+      </c>
+      <c r="E13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.3468979644560297E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.151997469526372</v>
+      </c>
+      <c r="K13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="L13">
+        <v>7.3969235542799799E-2</v>
+      </c>
+      <c r="M13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="N13">
+        <v>5.3154889671834002E-2</v>
+      </c>
+      <c r="O13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.14730492551455601</v>
+      </c>
+      <c r="S13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="T13">
+        <v>5.97033359161128E-2</v>
+      </c>
+      <c r="U13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="V13">
+        <v>3.3532232108088297E-2</v>
+      </c>
+      <c r="W13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0.147335077922428</v>
+      </c>
+      <c r="AA13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AB13">
+        <v>5.8673838877894902E-2</v>
+      </c>
+      <c r="AC13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.4110108712878798E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0.14715087067963001</v>
+      </c>
+      <c r="AI13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AJ13">
+        <v>5.8675734899333698E-2</v>
+      </c>
+      <c r="AK13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AL13">
+        <v>3.25958577790132E-2</v>
+      </c>
+      <c r="AM13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0.14730629058834299</v>
+      </c>
+      <c r="AQ13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AR13">
+        <v>5.9628558025058398E-2</v>
+      </c>
+      <c r="AS13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="AT13">
+        <v>3.3672159890560202E-2</v>
+      </c>
+      <c r="AU13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>0.14731304271644499</v>
+      </c>
+      <c r="AY13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="AZ13">
+        <v>5.9403385393420202E-2</v>
+      </c>
+      <c r="BA13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BB13">
+        <v>3.4033174122419102E-2</v>
+      </c>
+      <c r="BC13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>0.14729783458766799</v>
+      </c>
+      <c r="BG13">
+        <v>0.14730552232532099</v>
+      </c>
+      <c r="BH13">
+        <v>5.9049301447447397E-2</v>
+      </c>
+      <c r="BI13">
+        <v>5.9669014458022397E-2</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2910648573935698E-2</v>
+      </c>
+      <c r="BK13">
+        <v>3.3484592071142898E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.14730219728911001</v>
+      </c>
+      <c r="C14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="D14">
+        <v>5.9497024246719203E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.3181745649920699E-2</v>
+      </c>
+      <c r="G14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.190714503547491</v>
+      </c>
+      <c r="K14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="L14">
+        <v>0.15267699340091501</v>
+      </c>
+      <c r="M14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.155442547851319</v>
+      </c>
+      <c r="O14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>0.14722251322590499</v>
+      </c>
+      <c r="S14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="T14">
+        <v>5.9513875589572801E-2</v>
+      </c>
+      <c r="U14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="V14">
+        <v>3.3529082185239499E-2</v>
+      </c>
+      <c r="W14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>0.14858530597372199</v>
+      </c>
+      <c r="AA14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AB14">
+        <v>6.5208010903550107E-2</v>
+      </c>
+      <c r="AC14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AD14">
+        <v>5.9517892704743502E-2</v>
+      </c>
+      <c r="AE14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+      <c r="AH14">
+        <v>0.14524972399511901</v>
+      </c>
+      <c r="AI14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AJ14">
+        <v>4.88750795743313E-2</v>
+      </c>
+      <c r="AK14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AL14">
+        <v>3.8846506959494202E-2</v>
+      </c>
+      <c r="AM14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <v>0.14746276669135699</v>
+      </c>
+      <c r="AQ14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AR14">
+        <v>5.8765642869799697E-2</v>
+      </c>
+      <c r="AS14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="AT14">
+        <v>3.5523779926692797E-2</v>
+      </c>
+      <c r="AU14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>0.14779680793625499</v>
+      </c>
+      <c r="AY14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="AZ14">
+        <v>5.9080273704583901E-2</v>
+      </c>
+      <c r="BA14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BB14">
+        <v>3.9680927717822903E-2</v>
+      </c>
+      <c r="BC14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+      <c r="BE14">
+        <v>4</v>
+      </c>
+      <c r="BF14">
+        <v>0.147077861423203</v>
+      </c>
+      <c r="BG14">
+        <v>0.14730551794890101</v>
+      </c>
+      <c r="BH14">
+        <v>5.3283070608380098E-2</v>
+      </c>
+      <c r="BI14">
+        <v>5.9668998520714202E-2</v>
+      </c>
+      <c r="BJ14">
+        <v>3.7779614086049497E-2</v>
+      </c>
+      <c r="BK14">
+        <v>3.3484571737725198E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.147286245679985</v>
+      </c>
+      <c r="C15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="D15">
+        <v>5.5763609345185997E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.3135183049895801E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>0.21328761674452401</v>
+      </c>
+      <c r="K15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="L15">
+        <v>0.189151862546873</v>
+      </c>
+      <c r="M15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.18435957423410401</v>
+      </c>
+      <c r="O15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0.14695386514050399</v>
+      </c>
+      <c r="S15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="T15">
+        <v>5.5500434540517299E-2</v>
+      </c>
+      <c r="U15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="V15">
+        <v>3.8745483138559002E-2</v>
+      </c>
+      <c r="W15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>0.15039142309555101</v>
+      </c>
+      <c r="AA15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AB15">
+        <v>9.2260106850534998E-2</v>
+      </c>
+      <c r="AC15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AD15">
+        <v>9.6349776520441105E-2</v>
+      </c>
+      <c r="AE15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AG15">
+        <v>6</v>
+      </c>
+      <c r="AH15">
+        <v>0.14308143773840201</v>
+      </c>
+      <c r="AI15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AJ15">
+        <v>4.9394181763379001E-2</v>
+      </c>
+      <c r="AK15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AL15">
+        <v>5.3771014746772899E-2</v>
+      </c>
+      <c r="AM15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AO15">
+        <v>6</v>
+      </c>
+      <c r="AP15">
+        <v>0.14783635642377299</v>
+      </c>
+      <c r="AQ15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AR15">
+        <v>5.9086728500455703E-2</v>
+      </c>
+      <c r="AS15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="AT15">
+        <v>3.9534824702797802E-2</v>
+      </c>
+      <c r="AU15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
+        <v>0.14867082490953601</v>
+      </c>
+      <c r="AY15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="AZ15">
+        <v>6.4574177747589806E-2</v>
+      </c>
+      <c r="BA15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BB15">
+        <v>5.1220501992390199E-2</v>
+      </c>
+      <c r="BC15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+      <c r="BE15">
+        <v>6</v>
+      </c>
+      <c r="BF15">
+        <v>0.146819784609941</v>
+      </c>
+      <c r="BG15">
+        <v>0.14730551702408101</v>
+      </c>
+      <c r="BH15">
+        <v>5.3481955224391198E-2</v>
+      </c>
+      <c r="BI15">
+        <v>5.9669014416502103E-2</v>
+      </c>
+      <c r="BJ15">
+        <v>4.86320327832842E-2</v>
+      </c>
+      <c r="BK15">
+        <v>3.3484569525141901E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.14705486880051699</v>
+      </c>
+      <c r="C16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="D16">
+        <v>5.34809346070216E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.3919169616103202E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>0.23219301893613101</v>
+      </c>
+      <c r="K16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="L16">
+        <v>0.21489293993346301</v>
+      </c>
+      <c r="M16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.21649781046248201</v>
+      </c>
+      <c r="O16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>0.14629203027460899</v>
+      </c>
+      <c r="S16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="T16">
+        <v>5.4954900232897501E-2</v>
+      </c>
+      <c r="U16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="V16">
+        <v>4.2434060744661002E-2</v>
+      </c>
+      <c r="W16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>0.15841531426320599</v>
+      </c>
+      <c r="AA16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AB16">
+        <v>0.12566883155051201</v>
+      </c>
+      <c r="AC16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AD16">
+        <v>0.12909304429583901</v>
+      </c>
+      <c r="AE16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AG16">
+        <v>8</v>
+      </c>
+      <c r="AH16">
+        <v>0.14099104495224099</v>
+      </c>
+      <c r="AI16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AJ16">
+        <v>5.92851397452153E-2</v>
+      </c>
+      <c r="AK16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AL16">
+        <v>6.3924325745773697E-2</v>
+      </c>
+      <c r="AM16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AO16">
+        <v>8</v>
+      </c>
+      <c r="AP16">
+        <v>0.14894857704987199</v>
+      </c>
+      <c r="AQ16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AR16">
+        <v>6.1354651894660203E-2</v>
+      </c>
+      <c r="AS16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="AT16">
+        <v>4.3510766589221497E-2</v>
+      </c>
+      <c r="AU16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="AW16">
+        <v>8</v>
+      </c>
+      <c r="AX16">
+        <v>0.15096878677804401</v>
+      </c>
+      <c r="AY16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="AZ16">
+        <v>7.2905375786021201E-2</v>
+      </c>
+      <c r="BA16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BB16">
+        <v>6.2817162390458897E-2</v>
+      </c>
+      <c r="BC16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+      <c r="BE16">
+        <v>8</v>
+      </c>
+      <c r="BF16">
+        <v>0.14716971396008099</v>
+      </c>
+      <c r="BG16">
+        <v>0.147305522114003</v>
+      </c>
+      <c r="BH16">
+        <v>6.0817910740077703E-2</v>
+      </c>
+      <c r="BI16">
+        <v>5.96689435415921E-2</v>
+      </c>
+      <c r="BJ16">
+        <v>5.6909224391874701E-2</v>
+      </c>
+      <c r="BK16">
+        <v>3.3484653661789397E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.14701834116712201</v>
+      </c>
+      <c r="C17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="D17">
+        <v>5.2021241625073003E-2</v>
+      </c>
+      <c r="E17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.64305828371147E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0.24355927800055699</v>
+      </c>
+      <c r="K17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="L17">
+        <v>0.22930759238817999</v>
+      </c>
+      <c r="M17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.22925029743985201</v>
+      </c>
+      <c r="O17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0.14606173572459699</v>
+      </c>
+      <c r="S17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="T17">
+        <v>5.8140767769775399E-2</v>
+      </c>
+      <c r="U17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="V17">
+        <v>4.632838722944E-2</v>
+      </c>
+      <c r="W17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>0.163130506715952</v>
+      </c>
+      <c r="AA17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AB17">
+        <v>0.13202915176808999</v>
+      </c>
+      <c r="AC17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AD17">
+        <v>0.139921278163774</v>
+      </c>
+      <c r="AE17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>0.14022369162696699</v>
+      </c>
+      <c r="AI17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AJ17">
+        <v>6.6551138277094302E-2</v>
+      </c>
+      <c r="AK17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AL17">
+        <v>7.01759049649643E-2</v>
+      </c>
+      <c r="AM17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>0.14959577177987801</v>
+      </c>
+      <c r="AQ17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AR17">
+        <v>6.4260512061984298E-2</v>
+      </c>
+      <c r="AS17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="AT17">
+        <v>4.7257257290128599E-2</v>
+      </c>
+      <c r="AU17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="AW17">
+        <v>10</v>
+      </c>
+      <c r="AX17">
+        <v>0.152261045707617</v>
+      </c>
+      <c r="AY17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="AZ17">
+        <v>7.7531795558156105E-2</v>
+      </c>
+      <c r="BA17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BB17">
+        <v>6.8886612068766104E-2</v>
+      </c>
+      <c r="BC17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+      <c r="BE17">
+        <v>10</v>
+      </c>
+      <c r="BF17">
+        <v>0.147906843564128</v>
+      </c>
+      <c r="BG17">
+        <v>0.147305530201569</v>
+      </c>
+      <c r="BH17">
+        <v>6.4682373079065603E-2</v>
+      </c>
+      <c r="BI17">
+        <v>5.9668886015388903E-2</v>
+      </c>
+      <c r="BJ17">
+        <v>6.1844862028467701E-2</v>
+      </c>
+      <c r="BK17">
+        <v>3.3484518764764298E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="BF1:BK1"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="BF10:BK10"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="Z10:AE10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AP10:AU10"/>
+    <mergeCell ref="AX10:BC10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D567986C-5ACE-4F94-B8D6-A6A37A308E0E}">
+  <dimension ref="A1:BK17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="BF12" sqref="BF12:BL17"/>
     </sheetView>
   </sheetViews>
@@ -590,75 +3179,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="1"/>
-      <c r="Z1" s="2" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="1"/>
-      <c r="AH1" s="2" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="2"/>
+      <c r="AH1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="1"/>
-      <c r="AP1" s="2" t="s">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="1"/>
-      <c r="AX1" s="2" t="s">
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="2"/>
+      <c r="AX1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="1"/>
-      <c r="BF1" s="2" t="s">
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="2"/>
+      <c r="BF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -835,169 +3424,169 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.15856298999694601</v>
+        <v>0.73230824497215397</v>
       </c>
       <c r="C3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="D3">
-        <v>7.9929324153275194E-2</v>
+        <v>0.58461055917209004</v>
       </c>
       <c r="E3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="F3">
-        <v>6.2652886919254094E-2</v>
+        <v>0.57365761832752205</v>
       </c>
       <c r="G3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.14715085849519199</v>
+        <v>0.68894111069897301</v>
       </c>
       <c r="K3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="L3">
-        <v>5.8676424435556103E-2</v>
+        <v>0.30862230339740698</v>
       </c>
       <c r="M3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="N3">
-        <v>3.2598156300461402E-2</v>
+        <v>0.185615393515732</v>
       </c>
       <c r="O3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
       </c>
       <c r="R3">
-        <v>0.147193635818857</v>
+        <v>0.68894111069897201</v>
       </c>
       <c r="S3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="T3">
-        <v>5.9117467762726202E-2</v>
+        <v>0.30887757366554602</v>
       </c>
       <c r="U3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="V3">
-        <v>3.41248088177033E-2</v>
+        <v>0.186076113145066</v>
       </c>
       <c r="W3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="Y3">
         <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>0.147614887504144</v>
+        <v>0.68925873455731401</v>
       </c>
       <c r="AA3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AB3">
-        <v>6.1106350797256702E-2</v>
+        <v>0.30972018207931501</v>
       </c>
       <c r="AC3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="AD3">
-        <v>3.51529358071105E-2</v>
+        <v>0.20901416610595899</v>
       </c>
       <c r="AE3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="AG3">
         <v>0.5</v>
       </c>
       <c r="AH3">
-        <v>0.14730545062893899</v>
+        <v>0.68900664192038297</v>
       </c>
       <c r="AI3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AJ3">
-        <v>5.9665965479038401E-2</v>
+        <v>0.308481549296238</v>
       </c>
       <c r="AK3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="AL3">
-        <v>3.3476183877265697E-2</v>
+        <v>0.16365987411048899</v>
       </c>
       <c r="AM3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="AO3">
         <v>0.5</v>
       </c>
       <c r="AP3">
-        <v>0.147305484512298</v>
+        <v>0.68900664192038297</v>
       </c>
       <c r="AQ3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AR3">
-        <v>5.9670361918438899E-2</v>
+        <v>0.30846325970794097</v>
       </c>
       <c r="AS3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="AT3">
-        <v>3.3466892487053902E-2</v>
+        <v>0.16365777860006001</v>
       </c>
       <c r="AU3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="AW3">
         <v>0.5</v>
       </c>
       <c r="AX3">
-        <v>0.14730552234288699</v>
+        <v>0.68900665987167597</v>
       </c>
       <c r="AY3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AZ3">
-        <v>5.9668936904707398E-2</v>
+        <v>0.30847428913909702</v>
       </c>
       <c r="BA3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="BB3">
-        <v>3.34849983261623E-2</v>
+        <v>0.16364554145254601</v>
       </c>
       <c r="BC3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="BE3">
         <v>0.5</v>
       </c>
       <c r="BF3">
-        <v>0.14730552821715301</v>
+        <v>0.68900664192038297</v>
       </c>
       <c r="BG3">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="BH3">
-        <v>5.9675439745861099E-2</v>
+        <v>0.30848943403780499</v>
       </c>
       <c r="BI3">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="BJ3">
-        <v>3.3519211002488898E-2</v>
+        <v>0.16366643130434699</v>
       </c>
       <c r="BK3">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.3">
@@ -1005,169 +3594,169 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.16849017400734301</v>
+        <v>0.75190191424822705</v>
       </c>
       <c r="C4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="D4">
-        <v>9.7899967011159106E-2</v>
+        <v>0.69197959333458003</v>
       </c>
       <c r="E4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="F4">
-        <v>8.7977007281370798E-2</v>
+        <v>0.68929242871085705</v>
       </c>
       <c r="G4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.14668983499155999</v>
+        <v>0.68882028664002404</v>
       </c>
       <c r="K4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="L4">
-        <v>5.5163370364614397E-2</v>
+        <v>0.31434576461304498</v>
       </c>
       <c r="M4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="N4">
-        <v>3.2038953943817901E-2</v>
+        <v>0.25948615206014403</v>
       </c>
       <c r="O4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.14687001500490601</v>
+        <v>0.68882028664000305</v>
       </c>
       <c r="S4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="T4">
-        <v>5.7430663173597199E-2</v>
+        <v>0.31546244953937203</v>
       </c>
       <c r="U4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="V4">
-        <v>3.6279476174020199E-2</v>
+        <v>0.26011371663406602</v>
       </c>
       <c r="W4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.14852639204462001</v>
+        <v>0.69058936487881595</v>
       </c>
       <c r="AA4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AB4">
-        <v>6.4094271482838E-2</v>
+        <v>0.33937495083065</v>
       </c>
       <c r="AC4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="AD4">
-        <v>3.9203695817604897E-2</v>
+        <v>0.36690621457500999</v>
       </c>
       <c r="AE4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="AG4">
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.14730437275948599</v>
+        <v>0.68900637316189195</v>
       </c>
       <c r="AI4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AJ4">
-        <v>5.9638675028072699E-2</v>
+        <v>0.30837933936595102</v>
       </c>
       <c r="AK4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="AL4">
-        <v>3.3531914274015903E-2</v>
+        <v>0.16382110572307701</v>
       </c>
       <c r="AM4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="AO4">
         <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.14730491427307901</v>
+        <v>0.68900637316189295</v>
       </c>
       <c r="AQ4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AR4">
-        <v>5.9676993214992001E-2</v>
+        <v>0.30846503927508201</v>
       </c>
       <c r="AS4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="AT4">
-        <v>3.3174822415176698E-2</v>
+        <v>0.16389367047867101</v>
       </c>
       <c r="AU4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="AW4">
         <v>1</v>
       </c>
       <c r="AX4">
-        <v>0.147305522824141</v>
+        <v>0.68900665979067599</v>
       </c>
       <c r="AY4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AZ4">
-        <v>5.9670433759129698E-2</v>
+        <v>0.30844733499862897</v>
       </c>
       <c r="BA4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="BB4">
-        <v>3.3489163553786103E-2</v>
+        <v>0.163638686140609</v>
       </c>
       <c r="BC4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="BE4">
         <v>1</v>
       </c>
       <c r="BF4">
-        <v>0.14730561593890401</v>
+        <v>0.68900637316188895</v>
       </c>
       <c r="BG4">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="BH4">
-        <v>5.9750751170865299E-2</v>
+        <v>0.30838214884652798</v>
       </c>
       <c r="BI4">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="BJ4">
-        <v>3.3611868485552698E-2</v>
+        <v>0.163917015002361</v>
       </c>
       <c r="BK4">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.3">
@@ -1175,169 +3764,169 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.209925204833563</v>
+        <v>0.78767555497036101</v>
       </c>
       <c r="C5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="D5">
-        <v>0.16480573254702899</v>
+        <v>0.78066483670790598</v>
       </c>
       <c r="E5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="F5">
-        <v>0.16357792868946999</v>
+        <v>0.78066346268532205</v>
       </c>
       <c r="G5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.14091404206188901</v>
+        <v>0.709186258994709</v>
       </c>
       <c r="K5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="L5">
-        <v>5.9752408736275499E-2</v>
+        <v>0.67341768306532501</v>
       </c>
       <c r="M5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="N5">
-        <v>6.4543318936632399E-2</v>
+        <v>144.47083524471199</v>
       </c>
       <c r="O5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5">
-        <v>0.145061808639011</v>
+        <v>0.70918625899554599</v>
       </c>
       <c r="S5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="T5">
-        <v>7.1549447590796997E-2</v>
+        <v>0.67072544626515695</v>
       </c>
       <c r="U5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="V5">
-        <v>7.0436712176371305E-2</v>
+        <v>0.67258196536180304</v>
       </c>
       <c r="W5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="Y5">
         <v>4</v>
       </c>
       <c r="Z5">
-        <v>0.16136326477612101</v>
+        <v>0.736078549468141</v>
       </c>
       <c r="AA5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AB5">
-        <v>9.2972668855905605E-2</v>
+        <v>0.78640805280252202</v>
       </c>
       <c r="AC5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="AD5">
-        <v>8.1227288332962805E-2</v>
+        <v>0.79254809699385897</v>
       </c>
       <c r="AE5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="AG5">
         <v>4</v>
       </c>
       <c r="AH5">
-        <v>0.14707257546838501</v>
+        <v>0.68893689337978903</v>
       </c>
       <c r="AI5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AJ5">
-        <v>5.6168129475793298E-2</v>
+        <v>0.30013195626264799</v>
       </c>
       <c r="AK5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="AL5">
-        <v>3.3635563057247901E-2</v>
+        <v>0.36248535349765898</v>
       </c>
       <c r="AM5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="AO5">
         <v>4</v>
       </c>
       <c r="AP5">
-        <v>0.147106244483697</v>
+        <v>0.68893689337963404</v>
       </c>
       <c r="AQ5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AR5">
-        <v>5.5393879542898199E-2</v>
+        <v>0.298807651361511</v>
       </c>
       <c r="AS5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="AT5">
-        <v>3.0536639132537999E-2</v>
+        <v>3.8715145226893202</v>
       </c>
       <c r="AU5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="AW5">
         <v>4</v>
       </c>
       <c r="AX5">
-        <v>0.14730769349525</v>
+        <v>0.68900632981530296</v>
       </c>
       <c r="AY5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AZ5">
-        <v>5.9527521868215402E-2</v>
+        <v>0.30742971738653102</v>
       </c>
       <c r="BA5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="BB5">
-        <v>3.3193229682205803E-2</v>
+        <v>0.18910459754251599</v>
       </c>
       <c r="BC5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="BE5">
         <v>4</v>
       </c>
       <c r="BF5">
-        <v>0.14724985896470899</v>
+        <v>0.68893689337965403</v>
       </c>
       <c r="BG5">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="BH5">
-        <v>5.85898810671861E-2</v>
+        <v>0.29774618451652801</v>
       </c>
       <c r="BI5">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="BJ5">
-        <v>3.0282488393159598E-2</v>
+        <v>0.34058095544523898</v>
       </c>
       <c r="BK5">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.3">
@@ -1345,169 +3934,169 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.23090875682681899</v>
+        <v>0.79743115995882197</v>
       </c>
       <c r="C6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="D6">
-        <v>0.19430528730114099</v>
+        <v>0.79309013888340096</v>
       </c>
       <c r="E6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="F6">
-        <v>0.19364056199260599</v>
+        <v>0.79282512028641605</v>
       </c>
       <c r="G6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.138845983578578</v>
+        <v>0.77109953401762299</v>
       </c>
       <c r="K6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="L6">
-        <v>8.5554203646740004E-2</v>
+        <v>1.0570391796858301</v>
       </c>
       <c r="M6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="N6">
-        <v>8.8674218621694001E-2</v>
+        <v>1.55030120737663</v>
       </c>
       <c r="O6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="R6">
-        <v>0.14766251213961201</v>
+        <v>0.77109953402235099</v>
       </c>
       <c r="S6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="T6">
-        <v>9.7039024078021605E-2</v>
+        <v>1.0418461425272401</v>
       </c>
       <c r="U6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="V6">
-        <v>9.7102265962102904E-2</v>
+        <v>0.959280521014514</v>
       </c>
       <c r="W6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="Y6">
         <v>6</v>
       </c>
       <c r="Z6">
-        <v>0.17210512111050899</v>
+        <v>0.75308119104392202</v>
       </c>
       <c r="AA6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AB6">
-        <v>0.113805253702459</v>
+        <v>0.77172548137943298</v>
       </c>
       <c r="AC6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="AD6">
-        <v>0.107191355678596</v>
+        <v>0.77277730492557795</v>
       </c>
       <c r="AE6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="AG6">
         <v>6</v>
       </c>
       <c r="AH6">
-        <v>0.14642120209998499</v>
+        <v>0.68869346715347102</v>
       </c>
       <c r="AI6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AJ6">
-        <v>5.3017147205020598E-2</v>
+        <v>0.34612117333340803</v>
       </c>
       <c r="AK6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="AL6">
-        <v>4.1142732602785101E-2</v>
+        <v>1.0649463056886399</v>
       </c>
       <c r="AM6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="AO6">
         <v>6</v>
       </c>
       <c r="AP6">
-        <v>0.146510680238086</v>
+        <v>0.68869346715341395</v>
       </c>
       <c r="AQ6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AR6">
-        <v>4.2921940728720999E-2</v>
+        <v>0.34681318993838001</v>
       </c>
       <c r="AS6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="AT6">
-        <v>4.06989782880499E-2</v>
+        <v>248.65049490729299</v>
       </c>
       <c r="AU6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="AW6">
         <v>6</v>
       </c>
       <c r="AX6">
-        <v>0.147317990505232</v>
+        <v>0.68900304442265403</v>
       </c>
       <c r="AY6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AZ6">
-        <v>5.4270000103228903E-2</v>
+        <v>0.31191736149426103</v>
       </c>
       <c r="BA6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="BB6">
-        <v>3.0891736420649199E-2</v>
+        <v>0.50558611854046298</v>
       </c>
       <c r="BC6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="BE6">
         <v>6</v>
       </c>
       <c r="BF6">
-        <v>0.14709252008698301</v>
+        <v>0.688693467153492</v>
       </c>
       <c r="BG6">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="BH6">
-        <v>3.4728078157081399E-2</v>
+        <v>0.34040641303217001</v>
       </c>
       <c r="BI6">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="BJ6">
-        <v>4.5199291953158499E-2</v>
+        <v>0.62774365235708196</v>
       </c>
       <c r="BK6">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.3">
@@ -1515,169 +4104,169 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.246979181957309</v>
+        <v>0.80434889297986301</v>
       </c>
       <c r="C7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="D7">
-        <v>0.215161636481952</v>
+        <v>0.80133343095496001</v>
       </c>
       <c r="E7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="F7">
-        <v>0.21468409316439299</v>
+        <v>0.80134362943147996</v>
       </c>
       <c r="G7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="I7">
         <v>8</v>
       </c>
       <c r="J7">
-        <v>0.14291723844058801</v>
+        <v>0.82415194463969199</v>
       </c>
       <c r="K7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="L7">
-        <v>0.10669593526028701</v>
+        <v>1.2052621861394399</v>
       </c>
       <c r="M7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="N7">
-        <v>0.109493818117414</v>
+        <v>11.8476273234019</v>
       </c>
       <c r="O7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="Q7">
         <v>8</v>
       </c>
       <c r="R7">
-        <v>0.15543617768749499</v>
+        <v>0.82415194463833497</v>
       </c>
       <c r="S7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="T7">
-        <v>0.119727566358426</v>
+        <v>1.16688752314833</v>
       </c>
       <c r="U7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="V7">
-        <v>0.120602221203105</v>
+        <v>271.13813507024003</v>
       </c>
       <c r="W7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="Y7">
         <v>8</v>
       </c>
       <c r="Z7">
-        <v>0.18315681311422399</v>
+        <v>0.76456906995995899</v>
       </c>
       <c r="AA7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AB7">
-        <v>0.13481731720765699</v>
+        <v>0.76690983353129205</v>
       </c>
       <c r="AC7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="AD7">
-        <v>0.13117982104589501</v>
+        <v>0.76706967449242403</v>
       </c>
       <c r="AE7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="AG7">
         <v>8</v>
       </c>
       <c r="AH7">
-        <v>0.145301646739802</v>
+        <v>0.68823694918308398</v>
       </c>
       <c r="AI7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AJ7">
-        <v>5.5507121170111397E-2</v>
+        <v>0.38712135147926602</v>
       </c>
       <c r="AK7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="AL7">
-        <v>4.7192851574882698E-2</v>
+        <v>0.62176466072140002</v>
       </c>
       <c r="AM7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="AO7">
         <v>8</v>
       </c>
       <c r="AP7">
-        <v>0.144501043033818</v>
+        <v>0.68823694918474398</v>
       </c>
       <c r="AQ7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AR7">
-        <v>4.6325224319712498E-2</v>
+        <v>0.38749991904048797</v>
       </c>
       <c r="AS7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="AT7">
-        <v>4.5198051328162098E-2</v>
+        <v>96230.945097967298</v>
       </c>
       <c r="AU7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="AW7">
         <v>8</v>
       </c>
       <c r="AX7">
-        <v>0.14718558403158299</v>
+        <v>0.68898699180569201</v>
       </c>
       <c r="AY7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AZ7">
-        <v>5.1622731527162E-2</v>
+        <v>0.27857166615206902</v>
       </c>
       <c r="BA7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="BB7">
-        <v>3.1509763854379501E-2</v>
+        <v>374.348621318548</v>
       </c>
       <c r="BC7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="BE7">
         <v>8</v>
       </c>
       <c r="BF7">
-        <v>0.14517661903243601</v>
+        <v>0.68823694918404099</v>
       </c>
       <c r="BG7">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="BH7">
-        <v>3.9024029148288598E-2</v>
+        <v>0.38643470164869798</v>
       </c>
       <c r="BI7">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="BJ7">
-        <v>4.3282985873185402E-2</v>
+        <v>2.7093129277894099</v>
       </c>
       <c r="BK7">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.3">
@@ -1685,236 +4274,236 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.25712032150441699</v>
+        <v>0.80942529846766398</v>
       </c>
       <c r="C8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="D8">
-        <v>0.228111619999284</v>
+        <v>0.80670083321740904</v>
       </c>
       <c r="E8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="F8">
-        <v>0.227727692016055</v>
+        <v>0.807112050491815</v>
       </c>
       <c r="G8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <v>0.146511824768181</v>
+        <v>0.77661121989673199</v>
       </c>
       <c r="K8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="L8">
-        <v>0.11849808739494599</v>
+        <v>1.09865682420821</v>
       </c>
       <c r="M8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="N8">
-        <v>0.12052673122843</v>
+        <v>80.059580041961198</v>
       </c>
       <c r="O8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="Q8">
         <v>10</v>
       </c>
       <c r="R8">
-        <v>0.16063631697066699</v>
+        <v>0.77661121991632398</v>
       </c>
       <c r="S8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="T8">
-        <v>0.132074286537746</v>
+        <v>1.12423154015365</v>
       </c>
       <c r="U8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="V8">
-        <v>0.13259399591372301</v>
+        <v>244.897449689496</v>
       </c>
       <c r="W8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="Y8">
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>0.19013733074025199</v>
+        <v>0.773682597535443</v>
       </c>
       <c r="AA8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AB8">
-        <v>0.14487516507940501</v>
+        <v>0.77520588255965095</v>
       </c>
       <c r="AC8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="AD8">
-        <v>0.14184955402094601</v>
+        <v>0.77522973544406304</v>
       </c>
       <c r="AE8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="AG8">
         <v>10</v>
       </c>
       <c r="AH8">
-        <v>0.144804728418053</v>
+        <v>0.688031025064333</v>
       </c>
       <c r="AI8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AJ8">
-        <v>5.8722125058659397E-2</v>
+        <v>0.44444280886710102</v>
       </c>
       <c r="AK8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="AL8">
-        <v>5.1458677286046799E-2</v>
+        <v>5.0718150298626803</v>
       </c>
       <c r="AM8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="AO8">
         <v>10</v>
       </c>
       <c r="AP8">
-        <v>0.14390528053739801</v>
+        <v>0.68803102506803304</v>
       </c>
       <c r="AQ8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AR8">
-        <v>4.8398627250362702E-2</v>
+        <v>0.45931057805217801</v>
       </c>
       <c r="AS8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="AT8">
-        <v>5.0047024366789303E-2</v>
+        <v>289.15865475829997</v>
       </c>
       <c r="AU8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="AW8">
         <v>10</v>
       </c>
       <c r="AX8">
-        <v>0.14719891010755501</v>
+        <v>0.68893592737579101</v>
       </c>
       <c r="AY8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AZ8">
-        <v>4.4813811118295001E-2</v>
+        <v>0.308751030526214</v>
       </c>
       <c r="BA8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="BB8">
-        <v>3.5743136001562599E-2</v>
+        <v>239.013060280102</v>
       </c>
       <c r="BC8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="BE8">
         <v>10</v>
       </c>
       <c r="BF8">
-        <v>0.14491851521820501</v>
+        <v>0.68803102506691605</v>
       </c>
       <c r="BG8">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="BH8">
-        <v>4.6562127361556398E-2</v>
+        <v>0.459700167081105</v>
       </c>
       <c r="BI8">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="BJ8">
-        <v>5.5243406562960201E-2</v>
+        <v>43.830192216530698</v>
       </c>
       <c r="BK8">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="R10" s="2" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="R10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Z10" s="2" t="s">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="Z10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AH10" s="2" t="s">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AH10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AP10" s="2" t="s">
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AP10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AX10" s="2" t="s">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AX10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BF10" s="2" t="s">
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BF10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2091,169 +4680,169 @@
         <v>0.5</v>
       </c>
       <c r="B12">
-        <v>0.14730552233892499</v>
+        <v>0.68900665987167498</v>
       </c>
       <c r="C12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="D12">
-        <v>5.9669054892140201E-2</v>
+        <v>0.30847391180059702</v>
       </c>
       <c r="E12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="F12">
-        <v>3.3484149312527502E-2</v>
+        <v>0.16364532755518299</v>
       </c>
       <c r="G12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="I12">
         <v>0.5</v>
       </c>
       <c r="J12">
-        <v>0.14844580327715301</v>
+        <v>0.69078944298604805</v>
       </c>
       <c r="K12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="L12">
-        <v>6.3944313305011505E-2</v>
+        <v>0.34034830547429201</v>
       </c>
       <c r="M12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="N12">
-        <v>3.6773840491200402E-2</v>
+        <v>0.35231286400445699</v>
       </c>
       <c r="O12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="Q12">
         <v>0.5</v>
       </c>
       <c r="R12">
-        <v>0.147305589265705</v>
+        <v>0.68900664903674202</v>
       </c>
       <c r="S12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="T12">
-        <v>5.9669589947261403E-2</v>
+        <v>0.30850328492669699</v>
       </c>
       <c r="U12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="V12">
-        <v>3.3480873116556703E-2</v>
+        <v>0.16365923935189999</v>
       </c>
       <c r="W12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="Y12">
         <v>0.5</v>
       </c>
       <c r="Z12">
-        <v>0.147308298919368</v>
+        <v>0.68901040847976203</v>
       </c>
       <c r="AA12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AB12">
-        <v>5.9574559804369202E-2</v>
+        <v>0.30772464505830499</v>
       </c>
       <c r="AC12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="AD12">
-        <v>3.3503657350825201E-2</v>
+        <v>0.16488796561806801</v>
       </c>
       <c r="AE12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="AG12">
         <v>0.5</v>
       </c>
       <c r="AH12">
-        <v>0.14726679252920699</v>
+        <v>0.68898909384043405</v>
       </c>
       <c r="AI12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AJ12">
-        <v>5.9426978410981303E-2</v>
+        <v>0.308402368176729</v>
       </c>
       <c r="AK12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="AL12">
-        <v>3.3240615452718197E-2</v>
+        <v>0.16714595896547599</v>
       </c>
       <c r="AM12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="AO12">
         <v>0.5</v>
       </c>
       <c r="AP12">
-        <v>0.14730557446045101</v>
+        <v>0.68900669020886696</v>
       </c>
       <c r="AQ12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AR12">
-        <v>5.9666373801980803E-2</v>
+        <v>0.30848352435738102</v>
       </c>
       <c r="AS12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="AT12">
-        <v>3.3495191788551398E-2</v>
+        <v>0.16363226907002201</v>
       </c>
       <c r="AU12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="AW12">
         <v>0.5</v>
       </c>
       <c r="AX12">
-        <v>0.14730657797874</v>
+        <v>0.68901617088564304</v>
       </c>
       <c r="AY12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="AZ12">
-        <v>5.9637836955045299E-2</v>
+        <v>0.30827549390828102</v>
       </c>
       <c r="BA12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="BB12">
-        <v>3.3563713207108103E-2</v>
+        <v>0.16459109019454099</v>
       </c>
       <c r="BC12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
       <c r="BE12">
         <v>0.5</v>
       </c>
       <c r="BF12">
-        <v>0.14730458646771599</v>
+        <v>0.68901617088564204</v>
       </c>
       <c r="BG12">
-        <v>0.14730552233469499</v>
+        <v>0.68900665987295795</v>
       </c>
       <c r="BH12">
-        <v>5.9585096565643203E-2</v>
+        <v>0.30830277982781301</v>
       </c>
       <c r="BI12">
-        <v>5.9668960223347202E-2</v>
+        <v>0.308474042534161</v>
       </c>
       <c r="BJ12">
-        <v>3.3344832171098501E-2</v>
+        <v>0.164604136004282</v>
       </c>
       <c r="BK12">
-        <v>3.3484597298175399E-2</v>
+        <v>0.16364549171578399</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
@@ -2261,169 +4850,169 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.14730552261037599</v>
+        <v>0.68900665979068298</v>
       </c>
       <c r="C13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="D13">
-        <v>5.9668120346984897E-2</v>
+        <v>0.30849809412134099</v>
       </c>
       <c r="E13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="F13">
-        <v>3.3468979644560297E-2</v>
+        <v>0.16364942083407</v>
       </c>
       <c r="G13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.151997469526372</v>
+        <v>0.70062169646269101</v>
       </c>
       <c r="K13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="L13">
-        <v>7.3969235542799799E-2</v>
+        <v>0.47212023958278998</v>
       </c>
       <c r="M13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="N13">
-        <v>5.3154889671834002E-2</v>
+        <v>0.47339603907954603</v>
       </c>
       <c r="O13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13">
-        <v>0.14730492551455601</v>
+        <v>0.68900648834754696</v>
       </c>
       <c r="S13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="T13">
-        <v>5.97033359161128E-2</v>
+        <v>0.30866349043837998</v>
       </c>
       <c r="U13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="V13">
-        <v>3.3532232108088297E-2</v>
+        <v>0.163790683822674</v>
       </c>
       <c r="W13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.147335077922428</v>
+        <v>0.68908620429243295</v>
       </c>
       <c r="AA13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AB13">
-        <v>5.8673838877894902E-2</v>
+        <v>0.30031742046981602</v>
       </c>
       <c r="AC13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="AD13">
-        <v>3.4110108712878798E-2</v>
+        <v>0.19600411274695201</v>
       </c>
       <c r="AE13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="AG13">
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.14715087067963001</v>
+        <v>0.68894111069900998</v>
       </c>
       <c r="AI13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AJ13">
-        <v>5.8675734899333698E-2</v>
+        <v>0.30862270627962801</v>
       </c>
       <c r="AK13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="AL13">
-        <v>3.25958577790132E-2</v>
+        <v>0.185615430383271</v>
       </c>
       <c r="AM13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="AO13">
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.14730629058834299</v>
+        <v>0.68900719824850298</v>
       </c>
       <c r="AQ13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AR13">
-        <v>5.9628558025058398E-2</v>
+        <v>0.30835564605658899</v>
       </c>
       <c r="AS13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="AT13">
-        <v>3.3672159890560202E-2</v>
+        <v>0.16347099989231401</v>
       </c>
       <c r="AU13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="AW13">
         <v>1</v>
       </c>
       <c r="AX13">
-        <v>0.14731304271644499</v>
+        <v>0.68908217335551403</v>
       </c>
       <c r="AY13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="AZ13">
-        <v>5.9403385393420202E-2</v>
+        <v>0.30712203403044402</v>
       </c>
       <c r="BA13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="BB13">
-        <v>3.4033174122419102E-2</v>
+        <v>0.17167971332170101</v>
       </c>
       <c r="BC13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
       <c r="BE13">
         <v>1</v>
       </c>
       <c r="BF13">
-        <v>0.14729783458766799</v>
+        <v>0.68908217335553801</v>
       </c>
       <c r="BG13">
-        <v>0.14730552232532099</v>
+        <v>0.68900665987293996</v>
       </c>
       <c r="BH13">
-        <v>5.9049301447447397E-2</v>
+        <v>0.306859761580901</v>
       </c>
       <c r="BI13">
-        <v>5.9669014458022397E-2</v>
+        <v>0.30847459391739401</v>
       </c>
       <c r="BJ13">
-        <v>3.2910648573935698E-2</v>
+        <v>0.17161622250681399</v>
       </c>
       <c r="BK13">
-        <v>3.3484592071142898E-2</v>
+        <v>0.16364570421248401</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
@@ -2431,169 +5020,169 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>0.14730219728911001</v>
+        <v>0.689006329815263</v>
       </c>
       <c r="C14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="D14">
-        <v>5.9497024246719203E-2</v>
+        <v>0.307412295423937</v>
       </c>
       <c r="E14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="F14">
-        <v>3.3181745649920699E-2</v>
+        <v>0.181491996109509</v>
       </c>
       <c r="G14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="I14">
         <v>4</v>
       </c>
       <c r="J14">
-        <v>0.190714503547491</v>
+        <v>0.76155076869388005</v>
       </c>
       <c r="K14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="L14">
-        <v>0.15267699340091501</v>
+        <v>0.75947267638874505</v>
       </c>
       <c r="M14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="N14">
-        <v>0.155442547851319</v>
+        <v>0.75955157280188601</v>
       </c>
       <c r="O14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14">
-        <v>0.14722251322590499</v>
+        <v>0.68896619201644005</v>
       </c>
       <c r="S14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="T14">
-        <v>5.9513875589572801E-2</v>
+        <v>0.317872901305227</v>
       </c>
       <c r="U14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="V14">
-        <v>3.3529082185239499E-2</v>
+        <v>0.23719097632341801</v>
       </c>
       <c r="W14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="Y14">
         <v>4</v>
       </c>
       <c r="Z14">
-        <v>0.14858530597372199</v>
+        <v>0.70473567871859599</v>
       </c>
       <c r="AA14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AB14">
-        <v>6.5208010903550107E-2</v>
+        <v>0.44008519431916998</v>
       </c>
       <c r="AC14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="AD14">
-        <v>5.9517892704743502E-2</v>
+        <v>0.45816692202638698</v>
       </c>
       <c r="AE14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="AG14">
         <v>4</v>
       </c>
       <c r="AH14">
-        <v>0.14524972399511901</v>
+        <v>0.68948802849454904</v>
       </c>
       <c r="AI14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AJ14">
-        <v>4.88750795743313E-2</v>
+        <v>0.424141339685432</v>
       </c>
       <c r="AK14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="AL14">
-        <v>3.8846506959494202E-2</v>
+        <v>0.61759669434676101</v>
       </c>
       <c r="AM14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="AO14">
         <v>4</v>
       </c>
       <c r="AP14">
-        <v>0.14746276669135699</v>
+        <v>0.689218385481697</v>
       </c>
       <c r="AQ14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AR14">
-        <v>5.8765642869799697E-2</v>
+        <v>0.28942309279506101</v>
       </c>
       <c r="AS14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="AT14">
-        <v>3.5523779926692797E-2</v>
+        <v>0.25657553588346099</v>
       </c>
       <c r="AU14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="AW14">
         <v>4</v>
       </c>
       <c r="AX14">
-        <v>0.14779680793625499</v>
+        <v>0.693357670250903</v>
       </c>
       <c r="AY14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="AZ14">
-        <v>5.9080273704583901E-2</v>
+        <v>0.34469465151379602</v>
       </c>
       <c r="BA14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="BB14">
-        <v>3.9680927717822903E-2</v>
+        <v>0.32889290515528302</v>
       </c>
       <c r="BC14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
       <c r="BE14">
         <v>4</v>
       </c>
       <c r="BF14">
-        <v>0.147077861423203</v>
+        <v>0.69335767025119599</v>
       </c>
       <c r="BG14">
-        <v>0.14730551794890101</v>
+        <v>0.68900665993309196</v>
       </c>
       <c r="BH14">
-        <v>5.3283070608380098E-2</v>
+        <v>0.34520467323138498</v>
       </c>
       <c r="BI14">
-        <v>5.9668998520714202E-2</v>
+        <v>0.30847414869041301</v>
       </c>
       <c r="BJ14">
-        <v>3.7779614086049497E-2</v>
+        <v>0.32887867671091497</v>
       </c>
       <c r="BK14">
-        <v>3.3484571737725198E-2</v>
+        <v>0.16364562990735801</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.3">
@@ -2601,169 +5190,169 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.147286245679985</v>
+        <v>0.68900304442236504</v>
       </c>
       <c r="C15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="D15">
-        <v>5.5763609345185997E-2</v>
+        <v>0.313406623090494</v>
       </c>
       <c r="E15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="F15">
-        <v>3.3135183049895801E-2</v>
+        <v>0.26782228798486202</v>
       </c>
       <c r="G15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
       <c r="J15">
-        <v>0.21328761674452401</v>
+        <v>0.77658295338054195</v>
       </c>
       <c r="K15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="L15">
-        <v>0.189151862546873</v>
+        <v>0.77394606803713695</v>
       </c>
       <c r="M15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="N15">
-        <v>0.18435957423410401</v>
+        <v>0.773925189370546</v>
       </c>
       <c r="O15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15">
-        <v>0.14695386514050399</v>
+        <v>0.68882227960055098</v>
       </c>
       <c r="S15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="T15">
-        <v>5.5500434540517299E-2</v>
+        <v>0.31075374328524102</v>
       </c>
       <c r="U15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="V15">
-        <v>3.8745483138559002E-2</v>
+        <v>0.56327369102136404</v>
       </c>
       <c r="W15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="Y15">
         <v>6</v>
       </c>
       <c r="Z15">
-        <v>0.15039142309555101</v>
+        <v>0.72659629364798295</v>
       </c>
       <c r="AA15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AB15">
-        <v>9.2260106850534998E-2</v>
+        <v>0.68067054450712705</v>
       </c>
       <c r="AC15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="AD15">
-        <v>9.6349776520441105E-2</v>
+        <v>0.63497066133122004</v>
       </c>
       <c r="AE15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="AG15">
         <v>6</v>
       </c>
       <c r="AH15">
-        <v>0.14308143773840201</v>
+        <v>0.69449781449487502</v>
       </c>
       <c r="AI15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AJ15">
-        <v>4.9394181763379001E-2</v>
+        <v>0.54122842757923195</v>
       </c>
       <c r="AK15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="AL15">
-        <v>5.3771014746772899E-2</v>
+        <v>0.85055209744299998</v>
       </c>
       <c r="AM15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="AO15">
         <v>6</v>
       </c>
       <c r="AP15">
-        <v>0.14783635642377299</v>
+        <v>0.69026430788497795</v>
       </c>
       <c r="AQ15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AR15">
-        <v>5.9086728500455703E-2</v>
+        <v>0.38254164225352999</v>
       </c>
       <c r="AS15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="AT15">
-        <v>3.9534824702797802E-2</v>
+        <v>0.32542060671156697</v>
       </c>
       <c r="AU15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="AW15">
         <v>6</v>
       </c>
       <c r="AX15">
-        <v>0.14867082490953601</v>
+        <v>0.70169925427794999</v>
       </c>
       <c r="AY15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="AZ15">
-        <v>6.4574177747589806E-2</v>
+        <v>0.41134442881147498</v>
       </c>
       <c r="BA15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="BB15">
-        <v>5.1220501992390199E-2</v>
+        <v>0.39905452723438001</v>
       </c>
       <c r="BC15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
       <c r="BE15">
         <v>6</v>
       </c>
       <c r="BF15">
-        <v>0.146819784609941</v>
+        <v>0.70169925427833302</v>
       </c>
       <c r="BG15">
-        <v>0.14730551702408101</v>
+        <v>0.68900665668820604</v>
       </c>
       <c r="BH15">
-        <v>5.3481955224391198E-2</v>
+        <v>0.41149358553158799</v>
       </c>
       <c r="BI15">
-        <v>5.9669014416502103E-2</v>
+        <v>0.308474039720321</v>
       </c>
       <c r="BJ15">
-        <v>4.86320327832842E-2</v>
+        <v>0.42093159493540999</v>
       </c>
       <c r="BK15">
-        <v>3.3484569525141901E-2</v>
+        <v>0.16364559568248299</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.3">
@@ -2771,169 +5360,169 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>0.14705486880051699</v>
+        <v>0.68898699180474399</v>
       </c>
       <c r="C16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="D16">
-        <v>5.34809346070216E-2</v>
+        <v>0.27666639561886802</v>
       </c>
       <c r="E16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="F16">
-        <v>3.3919169616103202E-2</v>
+        <v>0.385440702992914</v>
       </c>
       <c r="G16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="I16">
         <v>8</v>
       </c>
       <c r="J16">
-        <v>0.23219301893613101</v>
+        <v>0.78646652938722605</v>
       </c>
       <c r="K16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="L16">
-        <v>0.21489293993346301</v>
+        <v>0.78470330158982604</v>
       </c>
       <c r="M16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="N16">
-        <v>0.21649781046248201</v>
+        <v>0.78468419961870906</v>
       </c>
       <c r="O16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="Q16">
         <v>8</v>
       </c>
       <c r="R16">
-        <v>0.14629203027460899</v>
+        <v>0.68851911269307597</v>
       </c>
       <c r="S16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="T16">
-        <v>5.4954900232897501E-2</v>
+        <v>0.38645668245671799</v>
       </c>
       <c r="U16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="V16">
-        <v>4.2434060744661002E-2</v>
+        <v>0.44087252327380899</v>
       </c>
       <c r="W16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="Y16">
         <v>8</v>
       </c>
       <c r="Z16">
-        <v>0.15841531426320599</v>
+        <v>0.74648119965078197</v>
       </c>
       <c r="AA16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AB16">
-        <v>0.12566883155051201</v>
+        <v>0.75302444182988704</v>
       </c>
       <c r="AC16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="AD16">
-        <v>0.12909304429583901</v>
+        <v>0.73287882394336901</v>
       </c>
       <c r="AE16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="AG16">
         <v>8</v>
       </c>
       <c r="AH16">
-        <v>0.14099104495224099</v>
+        <v>0.70918625896869703</v>
       </c>
       <c r="AI16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AJ16">
-        <v>5.92851397452153E-2</v>
+        <v>0.67341766635438105</v>
       </c>
       <c r="AK16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="AL16">
-        <v>6.3924325745773697E-2</v>
+        <v>15.142843475612599</v>
       </c>
       <c r="AM16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="AO16">
         <v>8</v>
       </c>
       <c r="AP16">
-        <v>0.14894857704987199</v>
+        <v>0.69339430945334601</v>
       </c>
       <c r="AQ16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AR16">
-        <v>6.1354651894660203E-2</v>
+        <v>0.44119938486243998</v>
       </c>
       <c r="AS16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="AT16">
-        <v>4.3510766589221497E-2</v>
+        <v>1.0063396878320101</v>
       </c>
       <c r="AU16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="AW16">
         <v>8</v>
       </c>
       <c r="AX16">
-        <v>0.15096878677804401</v>
+        <v>0.71416804030337599</v>
       </c>
       <c r="AY16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="AZ16">
-        <v>7.2905375786021201E-2</v>
+        <v>0.50551210505476196</v>
       </c>
       <c r="BA16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="BB16">
-        <v>6.2817162390458897E-2</v>
+        <v>0.70331744930204398</v>
       </c>
       <c r="BC16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
       <c r="BE16">
         <v>8</v>
       </c>
       <c r="BF16">
-        <v>0.14716971396008099</v>
+        <v>0.71416804030532</v>
       </c>
       <c r="BG16">
-        <v>0.147305522114003</v>
+        <v>0.68900665770962799</v>
       </c>
       <c r="BH16">
-        <v>6.0817910740077703E-2</v>
+        <v>0.50563351285186597</v>
       </c>
       <c r="BI16">
-        <v>5.96689435415921E-2</v>
+        <v>0.30847415264788602</v>
       </c>
       <c r="BJ16">
-        <v>5.6909224391874701E-2</v>
+        <v>0.49784217460188501</v>
       </c>
       <c r="BK16">
-        <v>3.3484653661789397E-2</v>
+        <v>0.163645569752184</v>
       </c>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.3">
@@ -2941,191 +5530,190 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>0.14701834116712201</v>
+        <v>0.68893592737466802</v>
       </c>
       <c r="C17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="D17">
-        <v>5.2021241625073003E-2</v>
+        <v>0.31160582336867099</v>
       </c>
       <c r="E17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="F17">
-        <v>3.64305828371147E-2</v>
+        <v>0.474519181327965</v>
       </c>
       <c r="G17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
-        <v>0.24355927800055699</v>
+        <v>0.79275846352657897</v>
       </c>
       <c r="K17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="L17">
-        <v>0.22930759238817999</v>
+        <v>0.79126186154133804</v>
       </c>
       <c r="M17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="N17">
-        <v>0.22925029743985201</v>
+        <v>0.79125285908964504</v>
       </c>
       <c r="O17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="Q17">
         <v>10</v>
       </c>
       <c r="R17">
-        <v>0.14606173572459699</v>
+        <v>0.68821132076540004</v>
       </c>
       <c r="S17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="T17">
-        <v>5.8140767769775399E-2</v>
+        <v>0.41097707954970802</v>
       </c>
       <c r="U17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="V17">
-        <v>4.632838722944E-2</v>
+        <v>0.47376878077145002</v>
       </c>
       <c r="W17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="Y17">
         <v>10</v>
       </c>
       <c r="Z17">
-        <v>0.163130506715952</v>
+        <v>0.755896609206821</v>
       </c>
       <c r="AA17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AB17">
-        <v>0.13202915176808999</v>
+        <v>0.80385158025266001</v>
       </c>
       <c r="AC17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="AD17">
-        <v>0.139921278163774</v>
+        <v>0.78573293809216804</v>
       </c>
       <c r="AE17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="AG17">
         <v>10</v>
       </c>
       <c r="AH17">
-        <v>0.14022369162696699</v>
+        <v>0.73629582115835102</v>
       </c>
       <c r="AI17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AJ17">
-        <v>6.6551138277094302E-2</v>
+        <v>0.926497910764152</v>
       </c>
       <c r="AK17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="AL17">
-        <v>7.01759049649643E-2</v>
+        <v>5.43167052037942</v>
       </c>
       <c r="AM17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="AO17">
         <v>10</v>
       </c>
       <c r="AP17">
-        <v>0.14959577177987801</v>
+        <v>0.69964786494037501</v>
       </c>
       <c r="AQ17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AR17">
-        <v>6.4260512061984298E-2</v>
+        <v>0.44249554790151402</v>
       </c>
       <c r="AS17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="AT17">
-        <v>4.7257257290128599E-2</v>
+        <v>0.429769408769758</v>
       </c>
       <c r="AU17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="AW17">
         <v>10</v>
       </c>
       <c r="AX17">
-        <v>0.152261045707617</v>
+        <v>0.72792155791605795</v>
       </c>
       <c r="AY17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="AZ17">
-        <v>7.7531795558156105E-2</v>
+        <v>0.606986085590969</v>
       </c>
       <c r="BA17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="BB17">
-        <v>6.8886612068766104E-2</v>
+        <v>0.60600393249972695</v>
       </c>
       <c r="BC17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
       <c r="BE17">
         <v>10</v>
       </c>
       <c r="BF17">
-        <v>0.147906843564128</v>
+        <v>0.72792155792412705</v>
       </c>
       <c r="BG17">
-        <v>0.147305530201569</v>
+        <v>0.68900665630095204</v>
       </c>
       <c r="BH17">
-        <v>6.4682373079065603E-2</v>
+        <v>0.60701441100230202</v>
       </c>
       <c r="BI17">
-        <v>5.9668886015388903E-2</v>
+        <v>0.30847388106636497</v>
       </c>
       <c r="BJ17">
-        <v>6.1844862028467701E-2</v>
+        <v>0.603398456642528</v>
       </c>
       <c r="BK17">
-        <v>3.3484518764764298E-2</v>
+        <v>0.163645580595666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BF1:BK1"/>
+    <mergeCell ref="B10:G10"/>
     <mergeCell ref="J10:O10"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AH1:AM1"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="R10:W10"/>
     <mergeCell ref="Z10:AE10"/>
     <mergeCell ref="AH10:AM10"/>
     <mergeCell ref="AP10:AU10"/>
     <mergeCell ref="AX10:BC10"/>
-    <mergeCell ref="BF1:BK1"/>
-    <mergeCell ref="B10:G10"/>
     <mergeCell ref="BF10:BK10"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AP1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>